--- a/Участок ремонта форм/Формокомплекты/Паспорта/Бутылки/Водочные/XXI-B-28-2-500-27 (Евроторг 0.5 л.).xlsx
+++ b/Участок ремонта форм/Формокомплекты/Паспорта/Бутылки/Водочные/XXI-B-28-2-500-27 (Евроторг 0.5 л.).xlsx
@@ -155,7 +155,7 @@
     <t>FS-872 U</t>
   </si>
   <si>
-    <t>Начальник УРФ                                            Е.А. Козинов</t>
+    <t>Начальник УРФ                                            А.Д. Гавриленко</t>
   </si>
 </sst>
 </file>
@@ -953,6 +953,40 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="168" fontId="4" fillId="3" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -976,42 +1010,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1322,8 +1320,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M67"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A19" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="F37" sqref="E37:J37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -1343,29 +1341,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15.6">
-      <c r="A1" s="96" t="s">
+      <c r="A1" s="108" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="96"/>
-      <c r="C1" s="96"/>
-      <c r="D1" s="96"/>
-      <c r="E1" s="96"/>
-      <c r="F1" s="96"/>
-      <c r="G1" s="96"/>
-      <c r="H1" s="96"/>
-      <c r="I1" s="96"/>
-      <c r="J1" s="96"/>
-      <c r="K1" s="96"/>
-      <c r="L1" s="96"/>
+      <c r="B1" s="108"/>
+      <c r="C1" s="108"/>
+      <c r="D1" s="108"/>
+      <c r="E1" s="108"/>
+      <c r="F1" s="108"/>
+      <c r="G1" s="108"/>
+      <c r="H1" s="108"/>
+      <c r="I1" s="108"/>
+      <c r="J1" s="108"/>
+      <c r="K1" s="108"/>
+      <c r="L1" s="108"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="100" t="s">
+      <c r="A2" s="112" t="s">
         <v>41</v>
       </c>
-      <c r="B2" s="100"/>
-      <c r="C2" s="100"/>
-      <c r="D2" s="100"/>
-      <c r="E2" s="100"/>
+      <c r="B2" s="112"/>
+      <c r="C2" s="112"/>
+      <c r="D2" s="112"/>
+      <c r="E2" s="112"/>
       <c r="F2" s="32"/>
       <c r="G2" s="3"/>
       <c r="H2" s="4"/>
@@ -1801,17 +1799,17 @@
       <c r="B20" s="86"/>
       <c r="C20" s="88"/>
       <c r="D20" s="86"/>
-      <c r="E20" s="105">
+      <c r="E20" s="93">
         <v>6000000</v>
       </c>
-      <c r="F20" s="105">
+      <c r="F20" s="93">
         <v>6381000</v>
       </c>
       <c r="G20" s="38">
         <f>F20/A$20</f>
         <v>0.37982142857142859</v>
       </c>
-      <c r="H20" s="111">
+      <c r="H20" s="99">
         <f>A20-F20</f>
         <v>10419000</v>
       </c>
@@ -1834,17 +1832,17 @@
       <c r="D21" s="87">
         <v>43538</v>
       </c>
-      <c r="E21" s="106">
+      <c r="E21" s="94">
         <v>525474</v>
       </c>
-      <c r="F21" s="106">
+      <c r="F21" s="94">
         <v>856087</v>
       </c>
       <c r="G21" s="38">
         <f>F21/A20</f>
         <v>5.0957559523809523E-2</v>
       </c>
-      <c r="H21" s="107">
+      <c r="H21" s="95">
         <f t="shared" ref="H21:I23" si="2">H20-F21</f>
         <v>9562913</v>
       </c>
@@ -1867,17 +1865,17 @@
       <c r="D22" s="10">
         <v>76442</v>
       </c>
-      <c r="E22" s="107">
+      <c r="E22" s="95">
         <v>1188810</v>
       </c>
-      <c r="F22" s="107">
+      <c r="F22" s="95">
         <v>1358486</v>
       </c>
       <c r="G22" s="38">
         <f>F22/A20</f>
         <v>8.0862261904761909E-2</v>
       </c>
-      <c r="H22" s="107">
+      <c r="H22" s="95">
         <f t="shared" si="2"/>
         <v>8204427</v>
       </c>
@@ -1898,17 +1896,17 @@
         <v>43652</v>
       </c>
       <c r="D23" s="22"/>
-      <c r="E23" s="108">
+      <c r="E23" s="96">
         <v>629370</v>
       </c>
-      <c r="F23" s="108">
+      <c r="F23" s="96">
         <v>661738</v>
       </c>
       <c r="G23" s="38">
-        <f>F23/A20</f>
+        <f>F23/A$20</f>
         <v>3.938916666666667E-2</v>
       </c>
-      <c r="H23" s="107">
+      <c r="H23" s="95">
         <f t="shared" si="2"/>
         <v>7542689</v>
       </c>
@@ -1922,14 +1920,33 @@
     </row>
     <row r="24" spans="1:12">
       <c r="A24" s="14"/>
-      <c r="B24" s="10"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="107"/>
-      <c r="F24" s="107"/>
-      <c r="G24" s="25"/>
-      <c r="H24" s="107"/>
-      <c r="I24" s="27"/>
+      <c r="B24" s="10">
+        <v>43726</v>
+      </c>
+      <c r="C24" s="10">
+        <v>43731</v>
+      </c>
+      <c r="D24" s="10">
+        <v>43735</v>
+      </c>
+      <c r="E24" s="95">
+        <v>936858</v>
+      </c>
+      <c r="F24" s="95">
+        <v>1010437</v>
+      </c>
+      <c r="G24" s="38">
+        <f>F24/A$20</f>
+        <v>6.0145059523809524E-2</v>
+      </c>
+      <c r="H24" s="95">
+        <f t="shared" ref="H24" si="3">H23-F24</f>
+        <v>6532252</v>
+      </c>
+      <c r="I24" s="27">
+        <f t="shared" ref="I24" si="4">I23-G24</f>
+        <v>0.38882452380952381</v>
+      </c>
       <c r="J24" s="79"/>
       <c r="K24" s="80"/>
       <c r="L24" s="1"/>
@@ -1939,10 +1956,10 @@
       <c r="B25" s="10"/>
       <c r="C25" s="10"/>
       <c r="D25" s="10"/>
-      <c r="E25" s="107"/>
-      <c r="F25" s="107"/>
+      <c r="E25" s="95"/>
+      <c r="F25" s="95"/>
       <c r="G25" s="25"/>
-      <c r="H25" s="107"/>
+      <c r="H25" s="95"/>
       <c r="I25" s="27"/>
       <c r="J25" s="79"/>
       <c r="K25" s="79"/>
@@ -1953,10 +1970,10 @@
       <c r="B26" s="10"/>
       <c r="C26" s="10"/>
       <c r="D26" s="10"/>
-      <c r="E26" s="107"/>
-      <c r="F26" s="107"/>
+      <c r="E26" s="95"/>
+      <c r="F26" s="95"/>
       <c r="G26" s="25"/>
-      <c r="H26" s="107"/>
+      <c r="H26" s="95"/>
       <c r="I26" s="27"/>
       <c r="J26" s="79"/>
       <c r="K26" s="79"/>
@@ -1967,10 +1984,10 @@
       <c r="B27" s="10"/>
       <c r="C27" s="10"/>
       <c r="D27" s="10"/>
-      <c r="E27" s="107"/>
-      <c r="F27" s="107"/>
+      <c r="E27" s="95"/>
+      <c r="F27" s="95"/>
       <c r="G27" s="25"/>
-      <c r="H27" s="107"/>
+      <c r="H27" s="95"/>
       <c r="I27" s="27"/>
       <c r="J27" s="79"/>
       <c r="K27" s="79"/>
@@ -1981,11 +1998,11 @@
       <c r="B28" s="10"/>
       <c r="C28" s="10"/>
       <c r="D28" s="22"/>
-      <c r="E28" s="108"/>
-      <c r="F28" s="107"/>
+      <c r="E28" s="96"/>
+      <c r="F28" s="95"/>
       <c r="G28" s="26"/>
-      <c r="H28" s="107"/>
-      <c r="I28" s="102"/>
+      <c r="H28" s="95"/>
+      <c r="I28" s="90"/>
       <c r="J28" s="79"/>
       <c r="K28" s="79"/>
       <c r="L28" s="1"/>
@@ -1995,11 +2012,11 @@
       <c r="B29" s="10"/>
       <c r="C29" s="10"/>
       <c r="D29" s="22"/>
-      <c r="E29" s="108"/>
-      <c r="F29" s="107"/>
+      <c r="E29" s="96"/>
+      <c r="F29" s="95"/>
       <c r="G29" s="25"/>
-      <c r="H29" s="107"/>
-      <c r="I29" s="102"/>
+      <c r="H29" s="95"/>
+      <c r="I29" s="90"/>
       <c r="J29" s="79"/>
       <c r="K29" s="79"/>
       <c r="L29" s="1"/>
@@ -2008,12 +2025,12 @@
       <c r="A30" s="15"/>
       <c r="B30" s="16"/>
       <c r="C30" s="16"/>
-      <c r="D30" s="103"/>
-      <c r="E30" s="109"/>
-      <c r="F30" s="110"/>
+      <c r="D30" s="91"/>
+      <c r="E30" s="97"/>
+      <c r="F30" s="98"/>
       <c r="G30" s="23"/>
-      <c r="H30" s="112"/>
-      <c r="I30" s="104"/>
+      <c r="H30" s="100"/>
+      <c r="I30" s="92"/>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
@@ -2027,29 +2044,29 @@
       <c r="D31" s="19"/>
       <c r="E31" s="61">
         <f>SUM(E20:E30)</f>
-        <v>8343654</v>
+        <v>9280512</v>
       </c>
       <c r="F31" s="60">
         <f>SUM(F20:F30)</f>
-        <v>9257311</v>
+        <v>10267748</v>
       </c>
       <c r="G31" s="24">
         <f>SUM(G20:G30)</f>
-        <v>0.55103041666666674</v>
+        <v>0.6111754761904763</v>
       </c>
       <c r="H31" s="20">
         <f>A20-F31</f>
-        <v>7542689</v>
+        <v>6532252</v>
       </c>
       <c r="I31" s="29">
         <f>1-G31</f>
-        <v>0.44896958333333326</v>
+        <v>0.3888245238095237</v>
       </c>
       <c r="J31" s="81"/>
       <c r="K31" s="81"/>
       <c r="L31" s="81"/>
     </row>
-    <row r="34" spans="1:12">
+    <row r="34" spans="1:11">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -2061,13 +2078,13 @@
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
     </row>
-    <row r="35" spans="1:12" ht="12.75" customHeight="1">
-      <c r="A35" s="97" t="s">
+    <row r="35" spans="1:11" ht="12.75" customHeight="1">
+      <c r="A35" s="109" t="s">
         <v>16</v>
       </c>
-      <c r="B35" s="97"/>
-      <c r="C35" s="97"/>
-      <c r="D35" s="97"/>
+      <c r="B35" s="109"/>
+      <c r="C35" s="109"/>
+      <c r="D35" s="109"/>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
@@ -2075,11 +2092,11 @@
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
     </row>
-    <row r="36" spans="1:12">
-      <c r="A36" s="94" t="s">
+    <row r="36" spans="1:11">
+      <c r="A36" s="106" t="s">
         <v>17</v>
       </c>
-      <c r="B36" s="94"/>
+      <c r="B36" s="106"/>
       <c r="C36" s="11" t="s">
         <v>18</v>
       </c>
@@ -2093,32 +2110,30 @@
       <c r="I36" s="1"/>
       <c r="J36" s="1"/>
     </row>
-    <row r="37" spans="1:12">
-      <c r="A37" s="92">
+    <row r="37" spans="1:11">
+      <c r="A37" s="104">
         <f>A20-F31</f>
-        <v>7542689</v>
-      </c>
-      <c r="B37" s="93"/>
+        <v>6532252</v>
+      </c>
+      <c r="B37" s="105"/>
       <c r="C37" s="85">
         <f>1-G31</f>
-        <v>0.44896958333333326</v>
+        <v>0.3888245238095237</v>
       </c>
       <c r="D37" s="21">
         <f>(C37/0.8)*100</f>
-        <v>56.121197916666652</v>
-      </c>
-      <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
-      <c r="G37" s="101" t="s">
+        <v>48.603065476190459</v>
+      </c>
+      <c r="E37" s="101" t="s">
         <v>43</v>
       </c>
+      <c r="F37" s="101"/>
+      <c r="G37" s="101"/>
       <c r="H37" s="101"/>
       <c r="I37" s="101"/>
       <c r="J37" s="101"/>
-      <c r="K37" s="101"/>
-      <c r="L37" s="101"/>
-    </row>
-    <row r="38" spans="1:12">
+    </row>
+    <row r="38" spans="1:11">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -2126,7 +2141,7 @@
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
     </row>
-    <row r="39" spans="1:12">
+    <row r="39" spans="1:11">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -2141,7 +2156,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="40" spans="1:12" ht="15.6">
+    <row r="40" spans="1:11" ht="15.6">
       <c r="A40" s="1"/>
       <c r="B40" s="7"/>
       <c r="C40" s="7"/>
@@ -2153,7 +2168,7 @@
       <c r="I40" s="1"/>
       <c r="J40" s="1"/>
     </row>
-    <row r="41" spans="1:12">
+    <row r="41" spans="1:11">
       <c r="A41" s="66"/>
       <c r="B41" s="66"/>
       <c r="C41" s="66"/>
@@ -2162,10 +2177,10 @@
       <c r="F41" s="66"/>
       <c r="G41" s="66"/>
       <c r="H41" s="66"/>
-      <c r="I41" s="90"/>
-      <c r="J41" s="91"/>
-    </row>
-    <row r="42" spans="1:12">
+      <c r="I41" s="102"/>
+      <c r="J41" s="103"/>
+    </row>
+    <row r="42" spans="1:11">
       <c r="A42" s="67"/>
       <c r="B42" s="68"/>
       <c r="C42" s="68"/>
@@ -2175,7 +2190,7 @@
       <c r="G42" s="69"/>
       <c r="H42" s="68"/>
     </row>
-    <row r="43" spans="1:12">
+    <row r="43" spans="1:11">
       <c r="A43" s="67"/>
       <c r="B43" s="68"/>
       <c r="C43" s="68"/>
@@ -2185,7 +2200,7 @@
       <c r="G43" s="69"/>
       <c r="H43" s="68"/>
     </row>
-    <row r="44" spans="1:12">
+    <row r="44" spans="1:11">
       <c r="A44" s="67"/>
       <c r="B44" s="68"/>
       <c r="C44" s="68"/>
@@ -2195,7 +2210,7 @@
       <c r="G44" s="69"/>
       <c r="H44" s="68"/>
     </row>
-    <row r="45" spans="1:12">
+    <row r="45" spans="1:11">
       <c r="A45" s="67"/>
       <c r="B45" s="68"/>
       <c r="C45" s="68"/>
@@ -2205,7 +2220,7 @@
       <c r="G45" s="69"/>
       <c r="H45" s="68"/>
     </row>
-    <row r="46" spans="1:12">
+    <row r="46" spans="1:11">
       <c r="A46" s="67"/>
       <c r="B46" s="68"/>
       <c r="C46" s="68"/>
@@ -2215,7 +2230,7 @@
       <c r="G46" s="69"/>
       <c r="H46" s="68"/>
     </row>
-    <row r="47" spans="1:12">
+    <row r="47" spans="1:11">
       <c r="A47" s="67"/>
       <c r="B47" s="68"/>
       <c r="C47" s="70"/>
@@ -2225,7 +2240,7 @@
       <c r="G47" s="70"/>
       <c r="H47" s="70"/>
     </row>
-    <row r="48" spans="1:12">
+    <row r="48" spans="1:11">
       <c r="A48" s="67"/>
       <c r="B48" s="68"/>
       <c r="C48" s="68"/>
@@ -2257,9 +2272,9 @@
     </row>
     <row r="51" spans="1:10" ht="15.6">
       <c r="A51" s="1"/>
-      <c r="B51" s="98"/>
-      <c r="C51" s="98"/>
-      <c r="D51" s="99"/>
+      <c r="B51" s="110"/>
+      <c r="C51" s="110"/>
+      <c r="D51" s="111"/>
       <c r="E51" s="72"/>
       <c r="F51" s="1"/>
       <c r="G51" s="1"/>
@@ -2276,8 +2291,8 @@
       <c r="F52" s="66"/>
       <c r="G52" s="66"/>
       <c r="H52" s="66"/>
-      <c r="I52" s="90"/>
-      <c r="J52" s="91"/>
+      <c r="I52" s="102"/>
+      <c r="J52" s="103"/>
     </row>
     <row r="53" spans="1:10">
       <c r="A53" s="67"/>
@@ -2288,8 +2303,8 @@
       <c r="F53" s="69"/>
       <c r="G53" s="69"/>
       <c r="H53" s="68"/>
-      <c r="I53" s="95"/>
-      <c r="J53" s="95"/>
+      <c r="I53" s="107"/>
+      <c r="J53" s="107"/>
     </row>
     <row r="54" spans="1:10">
       <c r="A54" s="67"/>
@@ -2300,8 +2315,8 @@
       <c r="F54" s="70"/>
       <c r="G54" s="70"/>
       <c r="H54" s="70"/>
-      <c r="I54" s="95"/>
-      <c r="J54" s="95"/>
+      <c r="I54" s="107"/>
+      <c r="J54" s="107"/>
     </row>
     <row r="55" spans="1:10">
       <c r="A55" s="1"/>
@@ -2314,24 +2329,23 @@
       <c r="H55" s="1"/>
     </row>
     <row r="60" spans="1:10">
-      <c r="B60" s="90"/>
-      <c r="C60" s="91"/>
+      <c r="B60" s="102"/>
+      <c r="C60" s="103"/>
     </row>
     <row r="67" spans="2:3">
-      <c r="B67" s="90"/>
-      <c r="C67" s="91"/>
+      <c r="B67" s="102"/>
+      <c r="C67" s="103"/>
     </row>
   </sheetData>
   <sortState ref="B9:B16">
     <sortCondition ref="B9"/>
   </sortState>
-  <mergeCells count="13">
+  <mergeCells count="12">
     <mergeCell ref="A1:L1"/>
     <mergeCell ref="A35:D35"/>
     <mergeCell ref="I54:J54"/>
     <mergeCell ref="B51:D51"/>
     <mergeCell ref="A2:E2"/>
-    <mergeCell ref="G37:L37"/>
     <mergeCell ref="B67:C67"/>
     <mergeCell ref="A37:B37"/>
     <mergeCell ref="A36:B36"/>

--- a/Участок ремонта форм/Формокомплекты/Паспорта/Бутылки/Водочные/XXI-B-28-2-500-27 (Евроторг 0.5 л.).xlsx
+++ b/Участок ремонта форм/Формокомплекты/Паспорта/Бутылки/Водочные/XXI-B-28-2-500-27 (Евроторг 0.5 л.).xlsx
@@ -879,8 +879,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="12" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="12" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -987,6 +985,20 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="168" fontId="4" fillId="3" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -998,19 +1010,11 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="12" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="3" fontId="12" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1318,10 +1322,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:M67"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A19" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F37" sqref="E37:J37"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31:F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -1341,29 +1348,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15.6">
-      <c r="A1" s="108" t="s">
+      <c r="A1" s="100" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="108"/>
-      <c r="C1" s="108"/>
-      <c r="D1" s="108"/>
-      <c r="E1" s="108"/>
-      <c r="F1" s="108"/>
-      <c r="G1" s="108"/>
-      <c r="H1" s="108"/>
-      <c r="I1" s="108"/>
-      <c r="J1" s="108"/>
-      <c r="K1" s="108"/>
-      <c r="L1" s="108"/>
+      <c r="B1" s="100"/>
+      <c r="C1" s="100"/>
+      <c r="D1" s="100"/>
+      <c r="E1" s="100"/>
+      <c r="F1" s="100"/>
+      <c r="G1" s="100"/>
+      <c r="H1" s="100"/>
+      <c r="I1" s="100"/>
+      <c r="J1" s="100"/>
+      <c r="K1" s="100"/>
+      <c r="L1" s="100"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="112" t="s">
+      <c r="A2" s="105" t="s">
         <v>41</v>
       </c>
-      <c r="B2" s="112"/>
-      <c r="C2" s="112"/>
-      <c r="D2" s="112"/>
-      <c r="E2" s="112"/>
+      <c r="B2" s="105"/>
+      <c r="C2" s="105"/>
+      <c r="D2" s="105"/>
+      <c r="E2" s="105"/>
       <c r="F2" s="32"/>
       <c r="G2" s="3"/>
       <c r="H2" s="4"/>
@@ -1425,7 +1432,7 @@
       <c r="A5" s="44">
         <v>1</v>
       </c>
-      <c r="B5" s="62" t="s">
+      <c r="B5" s="60" t="s">
         <v>15</v>
       </c>
       <c r="C5" s="9" t="s">
@@ -1444,14 +1451,14 @@
       <c r="I5" s="52"/>
       <c r="J5" s="45"/>
       <c r="K5" s="45"/>
-      <c r="L5" s="82"/>
+      <c r="L5" s="80"/>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="48">
         <f>A5+1</f>
         <v>2</v>
       </c>
-      <c r="B6" s="63" t="s">
+      <c r="B6" s="61" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="9" t="s">
@@ -1470,14 +1477,14 @@
       <c r="I6" s="53"/>
       <c r="J6" s="8"/>
       <c r="K6" s="8"/>
-      <c r="L6" s="83"/>
+      <c r="L6" s="81"/>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="48">
         <f t="shared" ref="A7:A16" si="1">A6+1</f>
         <v>3</v>
       </c>
-      <c r="B7" s="63" t="s">
+      <c r="B7" s="61" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="9" t="s">
@@ -1496,14 +1503,14 @@
       <c r="I7" s="53"/>
       <c r="J7" s="8"/>
       <c r="K7" s="8"/>
-      <c r="L7" s="83"/>
+      <c r="L7" s="81"/>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="48">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="B8" s="63" t="s">
+      <c r="B8" s="61" t="s">
         <v>6</v>
       </c>
       <c r="C8" s="9" t="s">
@@ -1522,14 +1529,14 @@
       <c r="I8" s="53"/>
       <c r="J8" s="9"/>
       <c r="K8" s="8"/>
-      <c r="L8" s="83"/>
+      <c r="L8" s="81"/>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="48">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="B9" s="64" t="s">
+      <c r="B9" s="62" t="s">
         <v>32</v>
       </c>
       <c r="C9" s="9" t="s">
@@ -1548,14 +1555,14 @@
       <c r="I9" s="54"/>
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
-      <c r="L9" s="83"/>
+      <c r="L9" s="81"/>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="48">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="B10" s="63" t="s">
+      <c r="B10" s="61" t="s">
         <v>37</v>
       </c>
       <c r="C10" s="9" t="s">
@@ -1574,14 +1581,14 @@
       <c r="I10" s="53"/>
       <c r="J10" s="9"/>
       <c r="K10" s="8"/>
-      <c r="L10" s="83"/>
+      <c r="L10" s="81"/>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="48">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="B11" s="63" t="s">
+      <c r="B11" s="61" t="s">
         <v>9</v>
       </c>
       <c r="C11" s="9" t="s">
@@ -1600,7 +1607,7 @@
       <c r="I11" s="54"/>
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
-      <c r="L11" s="83"/>
+      <c r="L11" s="81"/>
       <c r="M11" s="28"/>
     </row>
     <row r="12" spans="1:13">
@@ -1608,7 +1615,7 @@
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="B12" s="64" t="s">
+      <c r="B12" s="62" t="s">
         <v>12</v>
       </c>
       <c r="C12" s="9" t="s">
@@ -1627,7 +1634,7 @@
       <c r="I12" s="54"/>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
-      <c r="L12" s="83"/>
+      <c r="L12" s="81"/>
       <c r="M12" s="28"/>
     </row>
     <row r="13" spans="1:13">
@@ -1635,7 +1642,7 @@
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="B13" s="64" t="s">
+      <c r="B13" s="62" t="s">
         <v>14</v>
       </c>
       <c r="C13" s="9" t="s">
@@ -1656,14 +1663,14 @@
       <c r="I13" s="54"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
-      <c r="L13" s="83"/>
+      <c r="L13" s="81"/>
     </row>
     <row r="14" spans="1:13">
       <c r="A14" s="48">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="B14" s="63" t="s">
+      <c r="B14" s="61" t="s">
         <v>8</v>
       </c>
       <c r="C14" s="9" t="s">
@@ -1684,14 +1691,14 @@
       <c r="I14" s="54"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
-      <c r="L14" s="83"/>
+      <c r="L14" s="81"/>
     </row>
     <row r="15" spans="1:13">
       <c r="A15" s="48">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="B15" s="63" t="s">
+      <c r="B15" s="61" t="s">
         <v>11</v>
       </c>
       <c r="C15" s="9" t="s">
@@ -1710,14 +1717,14 @@
       <c r="I15" s="54"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
-      <c r="L15" s="83"/>
+      <c r="L15" s="81"/>
     </row>
     <row r="16" spans="1:13" ht="13.8" thickBot="1">
       <c r="A16" s="49">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="B16" s="65" t="s">
+      <c r="B16" s="63" t="s">
         <v>13</v>
       </c>
       <c r="C16" s="9"/>
@@ -1727,13 +1734,13 @@
       <c r="G16" s="51"/>
       <c r="H16" s="59"/>
       <c r="I16" s="55"/>
-      <c r="J16" s="76"/>
+      <c r="J16" s="74"/>
       <c r="K16" s="51"/>
-      <c r="L16" s="83"/>
+      <c r="L16" s="81"/>
     </row>
     <row r="17" spans="1:12">
-      <c r="A17" s="74"/>
-      <c r="B17" s="73"/>
+      <c r="A17" s="72"/>
+      <c r="B17" s="71"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
@@ -1745,7 +1752,7 @@
     </row>
     <row r="18" spans="1:12" ht="16.2" thickBot="1">
       <c r="A18" s="1"/>
-      <c r="B18" s="75" t="s">
+      <c r="B18" s="73" t="s">
         <v>10</v>
       </c>
       <c r="C18" s="13"/>
@@ -1755,9 +1762,9 @@
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
-      <c r="J18" s="77"/>
-      <c r="K18" s="77"/>
-      <c r="L18" s="77"/>
+      <c r="J18" s="75"/>
+      <c r="K18" s="75"/>
+      <c r="L18" s="75"/>
     </row>
     <row r="19" spans="1:12" ht="66.599999999999994" thickBot="1">
       <c r="A19" s="39" t="s">
@@ -1787,62 +1794,62 @@
       <c r="I19" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="J19" s="78"/>
-      <c r="K19" s="78"/>
-      <c r="L19" s="78"/>
+      <c r="J19" s="76"/>
+      <c r="K19" s="76"/>
+      <c r="L19" s="76"/>
     </row>
     <row r="20" spans="1:12">
-      <c r="A20" s="84">
+      <c r="A20" s="82">
         <f>E5*700000</f>
         <v>16800000</v>
       </c>
-      <c r="B20" s="86"/>
-      <c r="C20" s="88"/>
-      <c r="D20" s="86"/>
-      <c r="E20" s="93">
+      <c r="B20" s="84"/>
+      <c r="C20" s="86"/>
+      <c r="D20" s="84"/>
+      <c r="E20" s="91">
         <v>6000000</v>
       </c>
-      <c r="F20" s="93">
+      <c r="F20" s="91">
         <v>6381000</v>
       </c>
       <c r="G20" s="38">
         <f>F20/A$20</f>
         <v>0.37982142857142859</v>
       </c>
-      <c r="H20" s="99">
+      <c r="H20" s="97">
         <f>A20-F20</f>
         <v>10419000</v>
       </c>
-      <c r="I20" s="89">
+      <c r="I20" s="87">
         <f>1-G20</f>
         <v>0.62017857142857147</v>
       </c>
-      <c r="J20" s="79"/>
-      <c r="K20" s="70"/>
-      <c r="L20" s="70"/>
+      <c r="J20" s="77"/>
+      <c r="K20" s="68"/>
+      <c r="L20" s="68"/>
     </row>
     <row r="21" spans="1:12" ht="12.75" customHeight="1">
       <c r="A21" s="48"/>
-      <c r="B21" s="87">
+      <c r="B21" s="85">
         <v>43530</v>
       </c>
-      <c r="C21" s="87">
+      <c r="C21" s="85">
         <v>43535</v>
       </c>
-      <c r="D21" s="87">
+      <c r="D21" s="85">
         <v>43538</v>
       </c>
-      <c r="E21" s="94">
+      <c r="E21" s="92">
         <v>525474</v>
       </c>
-      <c r="F21" s="94">
+      <c r="F21" s="92">
         <v>856087</v>
       </c>
       <c r="G21" s="38">
         <f>F21/A20</f>
         <v>5.0957559523809523E-2</v>
       </c>
-      <c r="H21" s="95">
+      <c r="H21" s="93">
         <f t="shared" ref="H21:I23" si="2">H20-F21</f>
         <v>9562913</v>
       </c>
@@ -1865,17 +1872,17 @@
       <c r="D22" s="10">
         <v>76442</v>
       </c>
-      <c r="E22" s="95">
+      <c r="E22" s="93">
         <v>1188810</v>
       </c>
-      <c r="F22" s="95">
+      <c r="F22" s="93">
         <v>1358486</v>
       </c>
       <c r="G22" s="38">
         <f>F22/A20</f>
         <v>8.0862261904761909E-2</v>
       </c>
-      <c r="H22" s="95">
+      <c r="H22" s="93">
         <f t="shared" si="2"/>
         <v>8204427</v>
       </c>
@@ -1883,9 +1890,9 @@
         <f t="shared" si="2"/>
         <v>0.48835875000000001</v>
       </c>
-      <c r="J22" s="79"/>
-      <c r="K22" s="70"/>
-      <c r="L22" s="70"/>
+      <c r="J22" s="77"/>
+      <c r="K22" s="68"/>
+      <c r="L22" s="68"/>
     </row>
     <row r="23" spans="1:12">
       <c r="A23" s="14"/>
@@ -1896,17 +1903,17 @@
         <v>43652</v>
       </c>
       <c r="D23" s="22"/>
-      <c r="E23" s="96">
+      <c r="E23" s="94">
         <v>629370</v>
       </c>
-      <c r="F23" s="96">
+      <c r="F23" s="94">
         <v>661738</v>
       </c>
       <c r="G23" s="38">
         <f>F23/A$20</f>
         <v>3.938916666666667E-2</v>
       </c>
-      <c r="H23" s="95">
+      <c r="H23" s="93">
         <f t="shared" si="2"/>
         <v>7542689</v>
       </c>
@@ -1914,8 +1921,8 @@
         <f t="shared" si="2"/>
         <v>0.44896958333333337</v>
       </c>
-      <c r="J23" s="79"/>
-      <c r="K23" s="79"/>
+      <c r="J23" s="77"/>
+      <c r="K23" s="77"/>
       <c r="L23" s="1"/>
     </row>
     <row r="24" spans="1:12">
@@ -1929,17 +1936,17 @@
       <c r="D24" s="10">
         <v>43735</v>
       </c>
-      <c r="E24" s="95">
-        <v>936858</v>
-      </c>
-      <c r="F24" s="95">
+      <c r="E24" s="93">
+        <v>927072</v>
+      </c>
+      <c r="F24" s="93">
         <v>1010437</v>
       </c>
       <c r="G24" s="38">
         <f>F24/A$20</f>
         <v>6.0145059523809524E-2</v>
       </c>
-      <c r="H24" s="95">
+      <c r="H24" s="93">
         <f t="shared" ref="H24" si="3">H23-F24</f>
         <v>6532252</v>
       </c>
@@ -1947,8 +1954,8 @@
         <f t="shared" ref="I24" si="4">I23-G24</f>
         <v>0.38882452380952381</v>
       </c>
-      <c r="J24" s="79"/>
-      <c r="K24" s="80"/>
+      <c r="J24" s="77"/>
+      <c r="K24" s="78"/>
       <c r="L24" s="1"/>
     </row>
     <row r="25" spans="1:12">
@@ -1956,13 +1963,13 @@
       <c r="B25" s="10"/>
       <c r="C25" s="10"/>
       <c r="D25" s="10"/>
-      <c r="E25" s="95"/>
-      <c r="F25" s="95"/>
+      <c r="E25" s="93"/>
+      <c r="F25" s="93"/>
       <c r="G25" s="25"/>
-      <c r="H25" s="95"/>
+      <c r="H25" s="93"/>
       <c r="I25" s="27"/>
-      <c r="J25" s="79"/>
-      <c r="K25" s="79"/>
+      <c r="J25" s="77"/>
+      <c r="K25" s="77"/>
       <c r="L25" s="1"/>
     </row>
     <row r="26" spans="1:12">
@@ -1970,13 +1977,13 @@
       <c r="B26" s="10"/>
       <c r="C26" s="10"/>
       <c r="D26" s="10"/>
-      <c r="E26" s="95"/>
-      <c r="F26" s="95"/>
+      <c r="E26" s="93"/>
+      <c r="F26" s="93"/>
       <c r="G26" s="25"/>
-      <c r="H26" s="95"/>
+      <c r="H26" s="93"/>
       <c r="I26" s="27"/>
-      <c r="J26" s="79"/>
-      <c r="K26" s="79"/>
+      <c r="J26" s="77"/>
+      <c r="K26" s="77"/>
       <c r="L26" s="1"/>
     </row>
     <row r="27" spans="1:12">
@@ -1984,13 +1991,13 @@
       <c r="B27" s="10"/>
       <c r="C27" s="10"/>
       <c r="D27" s="10"/>
-      <c r="E27" s="95"/>
-      <c r="F27" s="95"/>
+      <c r="E27" s="93"/>
+      <c r="F27" s="93"/>
       <c r="G27" s="25"/>
-      <c r="H27" s="95"/>
+      <c r="H27" s="93"/>
       <c r="I27" s="27"/>
-      <c r="J27" s="79"/>
-      <c r="K27" s="79"/>
+      <c r="J27" s="77"/>
+      <c r="K27" s="77"/>
       <c r="L27" s="1"/>
     </row>
     <row r="28" spans="1:12">
@@ -1998,13 +2005,13 @@
       <c r="B28" s="10"/>
       <c r="C28" s="10"/>
       <c r="D28" s="22"/>
-      <c r="E28" s="96"/>
-      <c r="F28" s="95"/>
+      <c r="E28" s="94"/>
+      <c r="F28" s="93"/>
       <c r="G28" s="26"/>
-      <c r="H28" s="95"/>
-      <c r="I28" s="90"/>
-      <c r="J28" s="79"/>
-      <c r="K28" s="79"/>
+      <c r="H28" s="93"/>
+      <c r="I28" s="88"/>
+      <c r="J28" s="77"/>
+      <c r="K28" s="77"/>
       <c r="L28" s="1"/>
     </row>
     <row r="29" spans="1:12">
@@ -2012,25 +2019,25 @@
       <c r="B29" s="10"/>
       <c r="C29" s="10"/>
       <c r="D29" s="22"/>
-      <c r="E29" s="96"/>
-      <c r="F29" s="95"/>
+      <c r="E29" s="94"/>
+      <c r="F29" s="93"/>
       <c r="G29" s="25"/>
-      <c r="H29" s="95"/>
-      <c r="I29" s="90"/>
-      <c r="J29" s="79"/>
-      <c r="K29" s="79"/>
+      <c r="H29" s="93"/>
+      <c r="I29" s="88"/>
+      <c r="J29" s="77"/>
+      <c r="K29" s="77"/>
       <c r="L29" s="1"/>
     </row>
     <row r="30" spans="1:12" ht="13.8" thickBot="1">
       <c r="A30" s="15"/>
       <c r="B30" s="16"/>
       <c r="C30" s="16"/>
-      <c r="D30" s="91"/>
-      <c r="E30" s="97"/>
-      <c r="F30" s="98"/>
+      <c r="D30" s="89"/>
+      <c r="E30" s="95"/>
+      <c r="F30" s="96"/>
       <c r="G30" s="23"/>
-      <c r="H30" s="100"/>
-      <c r="I30" s="92"/>
+      <c r="H30" s="98"/>
+      <c r="I30" s="90"/>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
@@ -2042,11 +2049,11 @@
       <c r="B31" s="18"/>
       <c r="C31" s="18"/>
       <c r="D31" s="19"/>
-      <c r="E31" s="61">
+      <c r="E31" s="111">
         <f>SUM(E20:E30)</f>
-        <v>9280512</v>
-      </c>
-      <c r="F31" s="60">
+        <v>9270726</v>
+      </c>
+      <c r="F31" s="112">
         <f>SUM(F20:F30)</f>
         <v>10267748</v>
       </c>
@@ -2062,9 +2069,9 @@
         <f>1-G31</f>
         <v>0.3888245238095237</v>
       </c>
-      <c r="J31" s="81"/>
-      <c r="K31" s="81"/>
-      <c r="L31" s="81"/>
+      <c r="J31" s="79"/>
+      <c r="K31" s="79"/>
+      <c r="L31" s="79"/>
     </row>
     <row r="34" spans="1:11">
       <c r="A34" s="1"/>
@@ -2079,12 +2086,12 @@
       <c r="J34" s="1"/>
     </row>
     <row r="35" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A35" s="109" t="s">
+      <c r="A35" s="101" t="s">
         <v>16</v>
       </c>
-      <c r="B35" s="109"/>
-      <c r="C35" s="109"/>
-      <c r="D35" s="109"/>
+      <c r="B35" s="101"/>
+      <c r="C35" s="101"/>
+      <c r="D35" s="101"/>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
@@ -2093,10 +2100,10 @@
       <c r="J35" s="1"/>
     </row>
     <row r="36" spans="1:11">
-      <c r="A36" s="106" t="s">
+      <c r="A36" s="110" t="s">
         <v>17</v>
       </c>
-      <c r="B36" s="106"/>
+      <c r="B36" s="110"/>
       <c r="C36" s="11" t="s">
         <v>18</v>
       </c>
@@ -2111,12 +2118,12 @@
       <c r="J36" s="1"/>
     </row>
     <row r="37" spans="1:11">
-      <c r="A37" s="104">
+      <c r="A37" s="108">
         <f>A20-F31</f>
         <v>6532252</v>
       </c>
-      <c r="B37" s="105"/>
-      <c r="C37" s="85">
+      <c r="B37" s="109"/>
+      <c r="C37" s="83">
         <f>1-G31</f>
         <v>0.3888245238095237</v>
       </c>
@@ -2124,14 +2131,14 @@
         <f>(C37/0.8)*100</f>
         <v>48.603065476190459</v>
       </c>
-      <c r="E37" s="101" t="s">
+      <c r="E37" s="99" t="s">
         <v>43</v>
       </c>
-      <c r="F37" s="101"/>
-      <c r="G37" s="101"/>
-      <c r="H37" s="101"/>
-      <c r="I37" s="101"/>
-      <c r="J37" s="101"/>
+      <c r="F37" s="99"/>
+      <c r="G37" s="99"/>
+      <c r="H37" s="99"/>
+      <c r="I37" s="99"/>
+      <c r="J37" s="99"/>
     </row>
     <row r="38" spans="1:11">
       <c r="A38" s="1"/>
@@ -2169,113 +2176,113 @@
       <c r="J40" s="1"/>
     </row>
     <row r="41" spans="1:11">
-      <c r="A41" s="66"/>
-      <c r="B41" s="66"/>
-      <c r="C41" s="66"/>
-      <c r="D41" s="66"/>
-      <c r="E41" s="66"/>
-      <c r="F41" s="66"/>
-      <c r="G41" s="66"/>
-      <c r="H41" s="66"/>
-      <c r="I41" s="102"/>
-      <c r="J41" s="103"/>
+      <c r="A41" s="64"/>
+      <c r="B41" s="64"/>
+      <c r="C41" s="64"/>
+      <c r="D41" s="64"/>
+      <c r="E41" s="64"/>
+      <c r="F41" s="64"/>
+      <c r="G41" s="64"/>
+      <c r="H41" s="64"/>
+      <c r="I41" s="106"/>
+      <c r="J41" s="107"/>
     </row>
     <row r="42" spans="1:11">
-      <c r="A42" s="67"/>
-      <c r="B42" s="68"/>
-      <c r="C42" s="68"/>
+      <c r="A42" s="65"/>
+      <c r="B42" s="66"/>
+      <c r="C42" s="66"/>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
-      <c r="F42" s="68"/>
-      <c r="G42" s="69"/>
-      <c r="H42" s="68"/>
+      <c r="F42" s="66"/>
+      <c r="G42" s="67"/>
+      <c r="H42" s="66"/>
     </row>
     <row r="43" spans="1:11">
-      <c r="A43" s="67"/>
-      <c r="B43" s="68"/>
-      <c r="C43" s="68"/>
-      <c r="D43" s="68"/>
-      <c r="E43" s="68"/>
-      <c r="F43" s="68"/>
-      <c r="G43" s="69"/>
-      <c r="H43" s="68"/>
+      <c r="A43" s="65"/>
+      <c r="B43" s="66"/>
+      <c r="C43" s="66"/>
+      <c r="D43" s="66"/>
+      <c r="E43" s="66"/>
+      <c r="F43" s="66"/>
+      <c r="G43" s="67"/>
+      <c r="H43" s="66"/>
     </row>
     <row r="44" spans="1:11">
-      <c r="A44" s="67"/>
-      <c r="B44" s="68"/>
-      <c r="C44" s="68"/>
+      <c r="A44" s="65"/>
+      <c r="B44" s="66"/>
+      <c r="C44" s="66"/>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
-      <c r="F44" s="68"/>
-      <c r="G44" s="69"/>
-      <c r="H44" s="68"/>
+      <c r="F44" s="66"/>
+      <c r="G44" s="67"/>
+      <c r="H44" s="66"/>
     </row>
     <row r="45" spans="1:11">
-      <c r="A45" s="67"/>
-      <c r="B45" s="68"/>
-      <c r="C45" s="68"/>
-      <c r="D45" s="68"/>
-      <c r="E45" s="68"/>
-      <c r="F45" s="68"/>
-      <c r="G45" s="69"/>
-      <c r="H45" s="68"/>
+      <c r="A45" s="65"/>
+      <c r="B45" s="66"/>
+      <c r="C45" s="66"/>
+      <c r="D45" s="66"/>
+      <c r="E45" s="66"/>
+      <c r="F45" s="66"/>
+      <c r="G45" s="67"/>
+      <c r="H45" s="66"/>
     </row>
     <row r="46" spans="1:11">
-      <c r="A46" s="67"/>
-      <c r="B46" s="68"/>
-      <c r="C46" s="68"/>
+      <c r="A46" s="65"/>
+      <c r="B46" s="66"/>
+      <c r="C46" s="66"/>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
-      <c r="F46" s="68"/>
-      <c r="G46" s="69"/>
-      <c r="H46" s="68"/>
+      <c r="F46" s="66"/>
+      <c r="G46" s="67"/>
+      <c r="H46" s="66"/>
     </row>
     <row r="47" spans="1:11">
-      <c r="A47" s="67"/>
-      <c r="B47" s="68"/>
-      <c r="C47" s="70"/>
-      <c r="D47" s="71"/>
-      <c r="E47" s="71"/>
-      <c r="F47" s="70"/>
-      <c r="G47" s="70"/>
-      <c r="H47" s="70"/>
+      <c r="A47" s="65"/>
+      <c r="B47" s="66"/>
+      <c r="C47" s="68"/>
+      <c r="D47" s="69"/>
+      <c r="E47" s="69"/>
+      <c r="F47" s="68"/>
+      <c r="G47" s="68"/>
+      <c r="H47" s="68"/>
     </row>
     <row r="48" spans="1:11">
-      <c r="A48" s="67"/>
-      <c r="B48" s="68"/>
-      <c r="C48" s="68"/>
-      <c r="D48" s="68"/>
-      <c r="E48" s="68"/>
-      <c r="F48" s="68"/>
-      <c r="G48" s="69"/>
-      <c r="H48" s="68"/>
+      <c r="A48" s="65"/>
+      <c r="B48" s="66"/>
+      <c r="C48" s="66"/>
+      <c r="D48" s="66"/>
+      <c r="E48" s="66"/>
+      <c r="F48" s="66"/>
+      <c r="G48" s="67"/>
+      <c r="H48" s="66"/>
     </row>
     <row r="49" spans="1:10">
-      <c r="A49" s="67"/>
-      <c r="B49" s="68"/>
-      <c r="C49" s="68"/>
-      <c r="D49" s="68"/>
-      <c r="E49" s="68"/>
-      <c r="F49" s="68"/>
-      <c r="G49" s="69"/>
-      <c r="H49" s="68"/>
+      <c r="A49" s="65"/>
+      <c r="B49" s="66"/>
+      <c r="C49" s="66"/>
+      <c r="D49" s="66"/>
+      <c r="E49" s="66"/>
+      <c r="F49" s="66"/>
+      <c r="G49" s="67"/>
+      <c r="H49" s="66"/>
     </row>
     <row r="50" spans="1:10">
-      <c r="A50" s="67"/>
-      <c r="B50" s="68"/>
-      <c r="C50" s="68"/>
+      <c r="A50" s="65"/>
+      <c r="B50" s="66"/>
+      <c r="C50" s="66"/>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
-      <c r="F50" s="68"/>
-      <c r="G50" s="69"/>
-      <c r="H50" s="68"/>
+      <c r="F50" s="66"/>
+      <c r="G50" s="67"/>
+      <c r="H50" s="66"/>
     </row>
     <row r="51" spans="1:10" ht="15.6">
       <c r="A51" s="1"/>
-      <c r="B51" s="110"/>
-      <c r="C51" s="110"/>
-      <c r="D51" s="111"/>
-      <c r="E51" s="72"/>
+      <c r="B51" s="103"/>
+      <c r="C51" s="103"/>
+      <c r="D51" s="104"/>
+      <c r="E51" s="70"/>
       <c r="F51" s="1"/>
       <c r="G51" s="1"/>
       <c r="H51" s="1"/>
@@ -2283,40 +2290,40 @@
       <c r="J51" s="1"/>
     </row>
     <row r="52" spans="1:10">
-      <c r="A52" s="66"/>
-      <c r="B52" s="66"/>
-      <c r="C52" s="66"/>
-      <c r="D52" s="66"/>
-      <c r="E52" s="66"/>
-      <c r="F52" s="66"/>
-      <c r="G52" s="66"/>
-      <c r="H52" s="66"/>
-      <c r="I52" s="102"/>
-      <c r="J52" s="103"/>
+      <c r="A52" s="64"/>
+      <c r="B52" s="64"/>
+      <c r="C52" s="64"/>
+      <c r="D52" s="64"/>
+      <c r="E52" s="64"/>
+      <c r="F52" s="64"/>
+      <c r="G52" s="64"/>
+      <c r="H52" s="64"/>
+      <c r="I52" s="106"/>
+      <c r="J52" s="107"/>
     </row>
     <row r="53" spans="1:10">
-      <c r="A53" s="67"/>
+      <c r="A53" s="65"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
-      <c r="F53" s="69"/>
-      <c r="G53" s="69"/>
-      <c r="H53" s="68"/>
-      <c r="I53" s="107"/>
-      <c r="J53" s="107"/>
+      <c r="F53" s="67"/>
+      <c r="G53" s="67"/>
+      <c r="H53" s="66"/>
+      <c r="I53" s="102"/>
+      <c r="J53" s="102"/>
     </row>
     <row r="54" spans="1:10">
-      <c r="A54" s="67"/>
+      <c r="A54" s="65"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
-      <c r="D54" s="70"/>
-      <c r="E54" s="70"/>
-      <c r="F54" s="70"/>
-      <c r="G54" s="70"/>
-      <c r="H54" s="70"/>
-      <c r="I54" s="107"/>
-      <c r="J54" s="107"/>
+      <c r="D54" s="68"/>
+      <c r="E54" s="68"/>
+      <c r="F54" s="68"/>
+      <c r="G54" s="68"/>
+      <c r="H54" s="68"/>
+      <c r="I54" s="102"/>
+      <c r="J54" s="102"/>
     </row>
     <row r="55" spans="1:10">
       <c r="A55" s="1"/>
@@ -2329,23 +2336,18 @@
       <c r="H55" s="1"/>
     </row>
     <row r="60" spans="1:10">
-      <c r="B60" s="102"/>
-      <c r="C60" s="103"/>
+      <c r="B60" s="106"/>
+      <c r="C60" s="107"/>
     </row>
     <row r="67" spans="2:3">
-      <c r="B67" s="102"/>
-      <c r="C67" s="103"/>
+      <c r="B67" s="106"/>
+      <c r="C67" s="107"/>
     </row>
   </sheetData>
   <sortState ref="B9:B16">
     <sortCondition ref="B9"/>
   </sortState>
   <mergeCells count="12">
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A35:D35"/>
-    <mergeCell ref="I54:J54"/>
-    <mergeCell ref="B51:D51"/>
-    <mergeCell ref="A2:E2"/>
     <mergeCell ref="B67:C67"/>
     <mergeCell ref="A37:B37"/>
     <mergeCell ref="A36:B36"/>
@@ -2353,11 +2355,16 @@
     <mergeCell ref="I41:J41"/>
     <mergeCell ref="I52:J52"/>
     <mergeCell ref="I53:J53"/>
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A35:D35"/>
+    <mergeCell ref="I54:J54"/>
+    <mergeCell ref="B51:D51"/>
+    <mergeCell ref="A2:E2"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.51181102362204722" footer="0.51181102362204722"/>
-  <pageSetup paperSize="9" scale="85" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="93" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <rowBreaks count="1" manualBreakCount="1">
     <brk id="37" max="12" man="1"/>

--- a/Участок ремонта форм/Формокомплекты/Паспорта/Бутылки/Водочные/XXI-B-28-2-500-27 (Евроторг 0.5 л.).xlsx
+++ b/Участок ремонта форм/Формокомплекты/Паспорта/Бутылки/Водочные/XXI-B-28-2-500-27 (Евроторг 0.5 л.).xlsx
@@ -146,9 +146,6 @@
     <t>Кол-во брака, шт</t>
   </si>
   <si>
-    <t>Формокомплект бутылки «Евроторг 0,5»  тип XXI-В-28-1-500-27 (владелец ООО "ВЕДАТРАНЗИТ" Договор аренды имущества №3 от 23.01.2019 г.)</t>
-  </si>
-  <si>
     <t>Дата поставки  30.01.19 (c остаточным ресурсом 62 %)</t>
   </si>
   <si>
@@ -156,6 +153,9 @@
   </si>
   <si>
     <t>Начальник УРФ                                            А.Д. Гавриленко</t>
+  </si>
+  <si>
+    <t>Формокомплект бутылки «Евроторг 0,5»  тип XXI-В-28-2-500-27 (владелец ООО "ВЕДАТРАНЗИТ" Договор аренды имущества №3 от 23.01.2019 г.)</t>
   </si>
 </sst>
 </file>
@@ -985,19 +985,11 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="12" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="3" fontId="12" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
@@ -1010,11 +1002,19 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="12" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="12" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1328,7 +1328,7 @@
   <dimension ref="A1:M67"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31:F31"/>
+      <selection activeCell="A2" sqref="A2:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -1348,29 +1348,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15.6">
-      <c r="A1" s="100" t="s">
+      <c r="A1" s="108" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="108"/>
+      <c r="C1" s="108"/>
+      <c r="D1" s="108"/>
+      <c r="E1" s="108"/>
+      <c r="F1" s="108"/>
+      <c r="G1" s="108"/>
+      <c r="H1" s="108"/>
+      <c r="I1" s="108"/>
+      <c r="J1" s="108"/>
+      <c r="K1" s="108"/>
+      <c r="L1" s="108"/>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="112" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="100"/>
-      <c r="C1" s="100"/>
-      <c r="D1" s="100"/>
-      <c r="E1" s="100"/>
-      <c r="F1" s="100"/>
-      <c r="G1" s="100"/>
-      <c r="H1" s="100"/>
-      <c r="I1" s="100"/>
-      <c r="J1" s="100"/>
-      <c r="K1" s="100"/>
-      <c r="L1" s="100"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="105" t="s">
-        <v>41</v>
-      </c>
-      <c r="B2" s="105"/>
-      <c r="C2" s="105"/>
-      <c r="D2" s="105"/>
-      <c r="E2" s="105"/>
+      <c r="B2" s="112"/>
+      <c r="C2" s="112"/>
+      <c r="D2" s="112"/>
+      <c r="E2" s="112"/>
       <c r="F2" s="32"/>
       <c r="G2" s="3"/>
       <c r="H2" s="4"/>
@@ -1436,7 +1436,7 @@
         <v>15</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D5" s="47"/>
       <c r="E5" s="47">
@@ -1462,7 +1462,7 @@
         <v>7</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D6" s="9"/>
       <c r="E6" s="9">
@@ -1488,7 +1488,7 @@
         <v>5</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D7" s="9"/>
       <c r="E7" s="9">
@@ -1514,7 +1514,7 @@
         <v>6</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D8" s="9"/>
       <c r="E8" s="9">
@@ -1540,7 +1540,7 @@
         <v>32</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D9" s="9"/>
       <c r="E9" s="9">
@@ -1566,7 +1566,7 @@
         <v>37</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D10" s="9"/>
       <c r="E10" s="9">
@@ -1592,7 +1592,7 @@
         <v>9</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D11" s="9"/>
       <c r="E11" s="9">
@@ -1619,7 +1619,7 @@
         <v>12</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D12" s="9"/>
       <c r="E12" s="9">
@@ -1646,7 +1646,7 @@
         <v>14</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D13" s="9"/>
       <c r="E13" s="9">
@@ -1674,7 +1674,7 @@
         <v>8</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D14" s="9"/>
       <c r="E14" s="9">
@@ -1702,7 +1702,7 @@
         <v>11</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D15" s="9"/>
       <c r="E15" s="12">
@@ -2049,11 +2049,11 @@
       <c r="B31" s="18"/>
       <c r="C31" s="18"/>
       <c r="D31" s="19"/>
-      <c r="E31" s="111">
+      <c r="E31" s="100">
         <f>SUM(E20:E30)</f>
         <v>9270726</v>
       </c>
-      <c r="F31" s="112">
+      <c r="F31" s="101">
         <f>SUM(F20:F30)</f>
         <v>10267748</v>
       </c>
@@ -2086,12 +2086,12 @@
       <c r="J34" s="1"/>
     </row>
     <row r="35" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A35" s="101" t="s">
+      <c r="A35" s="109" t="s">
         <v>16</v>
       </c>
-      <c r="B35" s="101"/>
-      <c r="C35" s="101"/>
-      <c r="D35" s="101"/>
+      <c r="B35" s="109"/>
+      <c r="C35" s="109"/>
+      <c r="D35" s="109"/>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
@@ -2100,10 +2100,10 @@
       <c r="J35" s="1"/>
     </row>
     <row r="36" spans="1:11">
-      <c r="A36" s="110" t="s">
+      <c r="A36" s="106" t="s">
         <v>17</v>
       </c>
-      <c r="B36" s="110"/>
+      <c r="B36" s="106"/>
       <c r="C36" s="11" t="s">
         <v>18</v>
       </c>
@@ -2118,11 +2118,11 @@
       <c r="J36" s="1"/>
     </row>
     <row r="37" spans="1:11">
-      <c r="A37" s="108">
+      <c r="A37" s="104">
         <f>A20-F31</f>
         <v>6532252</v>
       </c>
-      <c r="B37" s="109"/>
+      <c r="B37" s="105"/>
       <c r="C37" s="83">
         <f>1-G31</f>
         <v>0.3888245238095237</v>
@@ -2132,7 +2132,7 @@
         <v>48.603065476190459</v>
       </c>
       <c r="E37" s="99" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F37" s="99"/>
       <c r="G37" s="99"/>
@@ -2184,8 +2184,8 @@
       <c r="F41" s="64"/>
       <c r="G41" s="64"/>
       <c r="H41" s="64"/>
-      <c r="I41" s="106"/>
-      <c r="J41" s="107"/>
+      <c r="I41" s="102"/>
+      <c r="J41" s="103"/>
     </row>
     <row r="42" spans="1:11">
       <c r="A42" s="65"/>
@@ -2279,9 +2279,9 @@
     </row>
     <row r="51" spans="1:10" ht="15.6">
       <c r="A51" s="1"/>
-      <c r="B51" s="103"/>
-      <c r="C51" s="103"/>
-      <c r="D51" s="104"/>
+      <c r="B51" s="110"/>
+      <c r="C51" s="110"/>
+      <c r="D51" s="111"/>
       <c r="E51" s="70"/>
       <c r="F51" s="1"/>
       <c r="G51" s="1"/>
@@ -2298,8 +2298,8 @@
       <c r="F52" s="64"/>
       <c r="G52" s="64"/>
       <c r="H52" s="64"/>
-      <c r="I52" s="106"/>
-      <c r="J52" s="107"/>
+      <c r="I52" s="102"/>
+      <c r="J52" s="103"/>
     </row>
     <row r="53" spans="1:10">
       <c r="A53" s="65"/>
@@ -2310,8 +2310,8 @@
       <c r="F53" s="67"/>
       <c r="G53" s="67"/>
       <c r="H53" s="66"/>
-      <c r="I53" s="102"/>
-      <c r="J53" s="102"/>
+      <c r="I53" s="107"/>
+      <c r="J53" s="107"/>
     </row>
     <row r="54" spans="1:10">
       <c r="A54" s="65"/>
@@ -2322,8 +2322,8 @@
       <c r="F54" s="68"/>
       <c r="G54" s="68"/>
       <c r="H54" s="68"/>
-      <c r="I54" s="102"/>
-      <c r="J54" s="102"/>
+      <c r="I54" s="107"/>
+      <c r="J54" s="107"/>
     </row>
     <row r="55" spans="1:10">
       <c r="A55" s="1"/>
@@ -2336,18 +2336,23 @@
       <c r="H55" s="1"/>
     </row>
     <row r="60" spans="1:10">
-      <c r="B60" s="106"/>
-      <c r="C60" s="107"/>
+      <c r="B60" s="102"/>
+      <c r="C60" s="103"/>
     </row>
     <row r="67" spans="2:3">
-      <c r="B67" s="106"/>
-      <c r="C67" s="107"/>
+      <c r="B67" s="102"/>
+      <c r="C67" s="103"/>
     </row>
   </sheetData>
   <sortState ref="B9:B16">
     <sortCondition ref="B9"/>
   </sortState>
   <mergeCells count="12">
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A35:D35"/>
+    <mergeCell ref="I54:J54"/>
+    <mergeCell ref="B51:D51"/>
+    <mergeCell ref="A2:E2"/>
     <mergeCell ref="B67:C67"/>
     <mergeCell ref="A37:B37"/>
     <mergeCell ref="A36:B36"/>
@@ -2355,11 +2360,6 @@
     <mergeCell ref="I41:J41"/>
     <mergeCell ref="I52:J52"/>
     <mergeCell ref="I53:J53"/>
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A35:D35"/>
-    <mergeCell ref="I54:J54"/>
-    <mergeCell ref="B51:D51"/>
-    <mergeCell ref="A2:E2"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>

--- a/Участок ремонта форм/Формокомплекты/Паспорта/Бутылки/Водочные/XXI-B-28-2-500-27 (Евроторг 0.5 л.).xlsx
+++ b/Участок ремонта форм/Формокомплекты/Паспорта/Бутылки/Водочные/XXI-B-28-2-500-27 (Евроторг 0.5 л.).xlsx
@@ -991,6 +991,20 @@
     <xf numFmtId="3" fontId="12" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="168" fontId="4" fillId="3" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1000,20 +1014,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1327,8 +1327,8 @@
   </sheetPr>
   <dimension ref="A1:M67"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:E2"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A10" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25:I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -1348,29 +1348,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15.6">
-      <c r="A1" s="108" t="s">
+      <c r="A1" s="102" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="108"/>
-      <c r="C1" s="108"/>
-      <c r="D1" s="108"/>
-      <c r="E1" s="108"/>
-      <c r="F1" s="108"/>
-      <c r="G1" s="108"/>
-      <c r="H1" s="108"/>
-      <c r="I1" s="108"/>
-      <c r="J1" s="108"/>
-      <c r="K1" s="108"/>
-      <c r="L1" s="108"/>
+      <c r="B1" s="102"/>
+      <c r="C1" s="102"/>
+      <c r="D1" s="102"/>
+      <c r="E1" s="102"/>
+      <c r="F1" s="102"/>
+      <c r="G1" s="102"/>
+      <c r="H1" s="102"/>
+      <c r="I1" s="102"/>
+      <c r="J1" s="102"/>
+      <c r="K1" s="102"/>
+      <c r="L1" s="102"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="112" t="s">
+      <c r="A2" s="107" t="s">
         <v>40</v>
       </c>
-      <c r="B2" s="112"/>
-      <c r="C2" s="112"/>
-      <c r="D2" s="112"/>
-      <c r="E2" s="112"/>
+      <c r="B2" s="107"/>
+      <c r="C2" s="107"/>
+      <c r="D2" s="107"/>
+      <c r="E2" s="107"/>
       <c r="F2" s="32"/>
       <c r="G2" s="3"/>
       <c r="H2" s="4"/>
@@ -1960,14 +1960,33 @@
     </row>
     <row r="25" spans="1:12">
       <c r="A25" s="14"/>
-      <c r="B25" s="10"/>
-      <c r="C25" s="10"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="93"/>
-      <c r="F25" s="93"/>
-      <c r="G25" s="25"/>
-      <c r="H25" s="93"/>
-      <c r="I25" s="27"/>
+      <c r="B25" s="10">
+        <v>43783</v>
+      </c>
+      <c r="C25" s="10">
+        <v>43786</v>
+      </c>
+      <c r="D25" s="10">
+        <v>43789</v>
+      </c>
+      <c r="E25" s="93">
+        <v>616712</v>
+      </c>
+      <c r="F25" s="93">
+        <v>679277</v>
+      </c>
+      <c r="G25" s="38">
+        <f>F25/A$20</f>
+        <v>4.043315476190476E-2</v>
+      </c>
+      <c r="H25" s="93">
+        <f t="shared" ref="H25" si="5">H24-F25</f>
+        <v>5852975</v>
+      </c>
+      <c r="I25" s="27">
+        <f t="shared" ref="I25" si="6">I24-G25</f>
+        <v>0.34839136904761903</v>
+      </c>
       <c r="J25" s="77"/>
       <c r="K25" s="77"/>
       <c r="L25" s="1"/>
@@ -2051,23 +2070,23 @@
       <c r="D31" s="19"/>
       <c r="E31" s="100">
         <f>SUM(E20:E30)</f>
-        <v>9270726</v>
+        <v>9887438</v>
       </c>
       <c r="F31" s="101">
         <f>SUM(F20:F30)</f>
-        <v>10267748</v>
+        <v>10947025</v>
       </c>
       <c r="G31" s="24">
         <f>SUM(G20:G30)</f>
-        <v>0.6111754761904763</v>
+        <v>0.65160863095238108</v>
       </c>
       <c r="H31" s="20">
         <f>A20-F31</f>
-        <v>6532252</v>
+        <v>5852975</v>
       </c>
       <c r="I31" s="29">
         <f>1-G31</f>
-        <v>0.3888245238095237</v>
+        <v>0.34839136904761892</v>
       </c>
       <c r="J31" s="79"/>
       <c r="K31" s="79"/>
@@ -2086,12 +2105,12 @@
       <c r="J34" s="1"/>
     </row>
     <row r="35" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A35" s="109" t="s">
+      <c r="A35" s="103" t="s">
         <v>16</v>
       </c>
-      <c r="B35" s="109"/>
-      <c r="C35" s="109"/>
-      <c r="D35" s="109"/>
+      <c r="B35" s="103"/>
+      <c r="C35" s="103"/>
+      <c r="D35" s="103"/>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
@@ -2100,10 +2119,10 @@
       <c r="J35" s="1"/>
     </row>
     <row r="36" spans="1:11">
-      <c r="A36" s="106" t="s">
+      <c r="A36" s="112" t="s">
         <v>17</v>
       </c>
-      <c r="B36" s="106"/>
+      <c r="B36" s="112"/>
       <c r="C36" s="11" t="s">
         <v>18</v>
       </c>
@@ -2118,18 +2137,18 @@
       <c r="J36" s="1"/>
     </row>
     <row r="37" spans="1:11">
-      <c r="A37" s="104">
+      <c r="A37" s="110">
         <f>A20-F31</f>
-        <v>6532252</v>
-      </c>
-      <c r="B37" s="105"/>
+        <v>5852975</v>
+      </c>
+      <c r="B37" s="111"/>
       <c r="C37" s="83">
         <f>1-G31</f>
-        <v>0.3888245238095237</v>
+        <v>0.34839136904761892</v>
       </c>
       <c r="D37" s="21">
         <f>(C37/0.8)*100</f>
-        <v>48.603065476190459</v>
+        <v>43.548921130952358</v>
       </c>
       <c r="E37" s="99" t="s">
         <v>42</v>
@@ -2184,8 +2203,8 @@
       <c r="F41" s="64"/>
       <c r="G41" s="64"/>
       <c r="H41" s="64"/>
-      <c r="I41" s="102"/>
-      <c r="J41" s="103"/>
+      <c r="I41" s="108"/>
+      <c r="J41" s="109"/>
     </row>
     <row r="42" spans="1:11">
       <c r="A42" s="65"/>
@@ -2279,9 +2298,9 @@
     </row>
     <row r="51" spans="1:10" ht="15.6">
       <c r="A51" s="1"/>
-      <c r="B51" s="110"/>
-      <c r="C51" s="110"/>
-      <c r="D51" s="111"/>
+      <c r="B51" s="105"/>
+      <c r="C51" s="105"/>
+      <c r="D51" s="106"/>
       <c r="E51" s="70"/>
       <c r="F51" s="1"/>
       <c r="G51" s="1"/>
@@ -2298,8 +2317,8 @@
       <c r="F52" s="64"/>
       <c r="G52" s="64"/>
       <c r="H52" s="64"/>
-      <c r="I52" s="102"/>
-      <c r="J52" s="103"/>
+      <c r="I52" s="108"/>
+      <c r="J52" s="109"/>
     </row>
     <row r="53" spans="1:10">
       <c r="A53" s="65"/>
@@ -2310,8 +2329,8 @@
       <c r="F53" s="67"/>
       <c r="G53" s="67"/>
       <c r="H53" s="66"/>
-      <c r="I53" s="107"/>
-      <c r="J53" s="107"/>
+      <c r="I53" s="104"/>
+      <c r="J53" s="104"/>
     </row>
     <row r="54" spans="1:10">
       <c r="A54" s="65"/>
@@ -2322,8 +2341,8 @@
       <c r="F54" s="68"/>
       <c r="G54" s="68"/>
       <c r="H54" s="68"/>
-      <c r="I54" s="107"/>
-      <c r="J54" s="107"/>
+      <c r="I54" s="104"/>
+      <c r="J54" s="104"/>
     </row>
     <row r="55" spans="1:10">
       <c r="A55" s="1"/>
@@ -2336,23 +2355,18 @@
       <c r="H55" s="1"/>
     </row>
     <row r="60" spans="1:10">
-      <c r="B60" s="102"/>
-      <c r="C60" s="103"/>
+      <c r="B60" s="108"/>
+      <c r="C60" s="109"/>
     </row>
     <row r="67" spans="2:3">
-      <c r="B67" s="102"/>
-      <c r="C67" s="103"/>
+      <c r="B67" s="108"/>
+      <c r="C67" s="109"/>
     </row>
   </sheetData>
   <sortState ref="B9:B16">
     <sortCondition ref="B9"/>
   </sortState>
   <mergeCells count="12">
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A35:D35"/>
-    <mergeCell ref="I54:J54"/>
-    <mergeCell ref="B51:D51"/>
-    <mergeCell ref="A2:E2"/>
     <mergeCell ref="B67:C67"/>
     <mergeCell ref="A37:B37"/>
     <mergeCell ref="A36:B36"/>
@@ -2360,6 +2374,11 @@
     <mergeCell ref="I41:J41"/>
     <mergeCell ref="I52:J52"/>
     <mergeCell ref="I53:J53"/>
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A35:D35"/>
+    <mergeCell ref="I54:J54"/>
+    <mergeCell ref="B51:D51"/>
+    <mergeCell ref="A2:E2"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>

--- a/Участок ремонта форм/Формокомплекты/Паспорта/Бутылки/Водочные/XXI-B-28-2-500-27 (Евроторг 0.5 л.).xlsx
+++ b/Участок ремонта форм/Формокомплекты/Паспорта/Бутылки/Водочные/XXI-B-28-2-500-27 (Евроторг 0.5 л.).xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="45">
   <si>
     <t>№Поз</t>
   </si>
@@ -156,6 +156,9 @@
   </si>
   <si>
     <t>Формокомплект бутылки «Евроторг 0,5»  тип XXI-В-28-2-500-27 (владелец ООО "ВЕДАТРАНЗИТ" Договор аренды имущества №3 от 23.01.2019 г.)</t>
+  </si>
+  <si>
+    <t>стоит</t>
   </si>
 </sst>
 </file>
@@ -169,7 +172,7 @@
     <numFmt numFmtId="167" formatCode="0.0%"/>
     <numFmt numFmtId="168" formatCode="#,##0_ ;\-#,##0\ "/>
   </numFmts>
-  <fonts count="18">
+  <fonts count="16">
     <font>
       <sz val="10"/>
       <name val="Arial Cyr"/>
@@ -266,16 +269,6 @@
       <charset val="204"/>
     </font>
     <font>
-      <sz val="8"/>
-      <name val="Arial Cyr"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="Arial Cyr"/>
-      <charset val="204"/>
-    </font>
-    <font>
       <b/>
       <sz val="10"/>
       <color rgb="FFFF0000"/>
@@ -726,7 +719,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="113">
+  <cellXfs count="112">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -791,12 +784,6 @@
     <xf numFmtId="167" fontId="0" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -838,18 +825,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
@@ -909,8 +890,8 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -990,6 +971,15 @@
     </xf>
     <xf numFmtId="3" fontId="12" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1327,8 +1317,8 @@
   </sheetPr>
   <dimension ref="A1:M67"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A10" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25:I25"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A13" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="H26" sqref="H26:I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -1348,34 +1338,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15.6">
-      <c r="A1" s="102" t="s">
+      <c r="A1" s="101" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="102"/>
-      <c r="C1" s="102"/>
-      <c r="D1" s="102"/>
-      <c r="E1" s="102"/>
-      <c r="F1" s="102"/>
-      <c r="G1" s="102"/>
-      <c r="H1" s="102"/>
-      <c r="I1" s="102"/>
-      <c r="J1" s="102"/>
-      <c r="K1" s="102"/>
-      <c r="L1" s="102"/>
+      <c r="B1" s="101"/>
+      <c r="C1" s="101"/>
+      <c r="D1" s="101"/>
+      <c r="E1" s="101"/>
+      <c r="F1" s="101"/>
+      <c r="G1" s="101"/>
+      <c r="H1" s="101"/>
+      <c r="I1" s="101"/>
+      <c r="J1" s="101"/>
+      <c r="K1" s="101"/>
+      <c r="L1" s="101"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="107" t="s">
+      <c r="A2" s="106" t="s">
         <v>40</v>
       </c>
-      <c r="B2" s="107"/>
-      <c r="C2" s="107"/>
-      <c r="D2" s="107"/>
-      <c r="E2" s="107"/>
-      <c r="F2" s="32"/>
+      <c r="B2" s="106"/>
+      <c r="C2" s="106"/>
+      <c r="D2" s="106"/>
+      <c r="E2" s="106"/>
+      <c r="F2" s="30"/>
       <c r="G2" s="3"/>
       <c r="H2" s="4"/>
-      <c r="K2" s="33"/>
-      <c r="L2" s="33"/>
+      <c r="K2" s="31"/>
+      <c r="L2" s="31"/>
       <c r="M2" s="1"/>
     </row>
     <row r="3" spans="1:13" ht="16.2" thickBot="1">
@@ -1386,79 +1376,79 @@
       <c r="G3" s="6"/>
       <c r="H3" s="5"/>
       <c r="I3" s="5"/>
-      <c r="J3" s="33"/>
-      <c r="K3" s="33"/>
+      <c r="J3" s="31"/>
+      <c r="K3" s="31"/>
       <c r="M3" s="13"/>
     </row>
     <row r="4" spans="1:13" ht="66.599999999999994" thickBot="1">
-      <c r="A4" s="34" t="s">
+      <c r="A4" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="35" t="s">
+      <c r="B4" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="35" t="s">
+      <c r="C4" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="35" t="s">
+      <c r="D4" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="E4" s="35" t="s">
+      <c r="E4" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="F4" s="35" t="s">
+      <c r="F4" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="G4" s="35" t="s">
+      <c r="G4" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="H4" s="36" t="s">
+      <c r="H4" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="I4" s="37" t="s">
+      <c r="I4" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="J4" s="35" t="s">
+      <c r="J4" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="K4" s="35" t="s">
+      <c r="K4" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="L4" s="36" t="s">
+      <c r="L4" s="34" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="44">
+      <c r="A5" s="42">
         <v>1</v>
       </c>
-      <c r="B5" s="60" t="s">
+      <c r="B5" s="56" t="s">
         <v>15</v>
       </c>
       <c r="C5" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="D5" s="47"/>
-      <c r="E5" s="47">
+      <c r="D5" s="44"/>
+      <c r="E5" s="44">
         <v>24</v>
       </c>
-      <c r="F5" s="46"/>
-      <c r="G5" s="47">
+      <c r="F5" s="98"/>
+      <c r="G5" s="44">
         <f>E5-F5</f>
         <v>24</v>
       </c>
-      <c r="H5" s="56"/>
-      <c r="I5" s="52"/>
-      <c r="J5" s="45"/>
-      <c r="K5" s="45"/>
-      <c r="L5" s="80"/>
+      <c r="H5" s="52"/>
+      <c r="I5" s="48"/>
+      <c r="J5" s="43"/>
+      <c r="K5" s="43"/>
+      <c r="L5" s="76"/>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="48">
+      <c r="A6" s="45">
         <f>A5+1</f>
         <v>2</v>
       </c>
-      <c r="B6" s="61" t="s">
+      <c r="B6" s="57" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="9" t="s">
@@ -1468,23 +1458,23 @@
       <c r="E6" s="9">
         <v>24</v>
       </c>
-      <c r="F6" s="22"/>
+      <c r="F6" s="99"/>
       <c r="G6" s="9">
         <f t="shared" ref="G6:G15" si="0">E6-F6</f>
         <v>24</v>
       </c>
-      <c r="H6" s="57"/>
-      <c r="I6" s="53"/>
+      <c r="H6" s="53"/>
+      <c r="I6" s="49"/>
       <c r="J6" s="8"/>
       <c r="K6" s="8"/>
-      <c r="L6" s="81"/>
+      <c r="L6" s="77"/>
     </row>
     <row r="7" spans="1:13">
-      <c r="A7" s="48">
+      <c r="A7" s="45">
         <f t="shared" ref="A7:A16" si="1">A6+1</f>
         <v>3</v>
       </c>
-      <c r="B7" s="61" t="s">
+      <c r="B7" s="57" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="9" t="s">
@@ -1494,23 +1484,23 @@
       <c r="E7" s="9">
         <v>28</v>
       </c>
-      <c r="F7" s="22"/>
+      <c r="F7" s="99"/>
       <c r="G7" s="9">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="H7" s="58"/>
-      <c r="I7" s="53"/>
+      <c r="H7" s="54"/>
+      <c r="I7" s="49"/>
       <c r="J7" s="8"/>
       <c r="K7" s="8"/>
-      <c r="L7" s="81"/>
+      <c r="L7" s="77"/>
     </row>
     <row r="8" spans="1:13">
-      <c r="A8" s="48">
+      <c r="A8" s="45">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="B8" s="61" t="s">
+      <c r="B8" s="57" t="s">
         <v>6</v>
       </c>
       <c r="C8" s="9" t="s">
@@ -1520,23 +1510,23 @@
       <c r="E8" s="9">
         <v>28</v>
       </c>
-      <c r="F8" s="22"/>
+      <c r="F8" s="99"/>
       <c r="G8" s="9">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="H8" s="58"/>
-      <c r="I8" s="53"/>
+      <c r="H8" s="54"/>
+      <c r="I8" s="49"/>
       <c r="J8" s="9"/>
       <c r="K8" s="8"/>
-      <c r="L8" s="81"/>
+      <c r="L8" s="77"/>
     </row>
     <row r="9" spans="1:13">
-      <c r="A9" s="48">
+      <c r="A9" s="45">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="B9" s="62" t="s">
+      <c r="B9" s="58" t="s">
         <v>32</v>
       </c>
       <c r="C9" s="9" t="s">
@@ -1546,23 +1536,23 @@
       <c r="E9" s="9">
         <v>22</v>
       </c>
-      <c r="F9" s="22"/>
+      <c r="F9" s="99"/>
       <c r="G9" s="9">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="H9" s="58"/>
-      <c r="I9" s="54"/>
+      <c r="H9" s="54"/>
+      <c r="I9" s="50"/>
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
-      <c r="L9" s="81"/>
+      <c r="L9" s="77"/>
     </row>
     <row r="10" spans="1:13">
-      <c r="A10" s="48">
+      <c r="A10" s="45">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="B10" s="61" t="s">
+      <c r="B10" s="57" t="s">
         <v>37</v>
       </c>
       <c r="C10" s="9" t="s">
@@ -1572,23 +1562,23 @@
       <c r="E10" s="9">
         <v>20</v>
       </c>
-      <c r="F10" s="22"/>
+      <c r="F10" s="99"/>
       <c r="G10" s="9">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="H10" s="58"/>
-      <c r="I10" s="53"/>
+      <c r="H10" s="54"/>
+      <c r="I10" s="49"/>
       <c r="J10" s="9"/>
       <c r="K10" s="8"/>
-      <c r="L10" s="81"/>
+      <c r="L10" s="77"/>
     </row>
     <row r="11" spans="1:13">
-      <c r="A11" s="48">
+      <c r="A11" s="45">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="B11" s="61" t="s">
+      <c r="B11" s="57" t="s">
         <v>9</v>
       </c>
       <c r="C11" s="9" t="s">
@@ -1598,24 +1588,26 @@
       <c r="E11" s="9">
         <v>60</v>
       </c>
-      <c r="F11" s="30"/>
+      <c r="F11" s="99">
+        <v>22</v>
+      </c>
       <c r="G11" s="9">
         <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-      <c r="H11" s="58"/>
-      <c r="I11" s="54"/>
+        <v>38</v>
+      </c>
+      <c r="H11" s="54"/>
+      <c r="I11" s="50"/>
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
-      <c r="L11" s="81"/>
+      <c r="L11" s="77"/>
       <c r="M11" s="28"/>
     </row>
     <row r="12" spans="1:13">
-      <c r="A12" s="48">
+      <c r="A12" s="45">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="B12" s="62" t="s">
+      <c r="B12" s="58" t="s">
         <v>12</v>
       </c>
       <c r="C12" s="9" t="s">
@@ -1625,24 +1617,24 @@
       <c r="E12" s="9">
         <v>21</v>
       </c>
-      <c r="F12" s="31"/>
+      <c r="F12" s="99"/>
       <c r="G12" s="9">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="H12" s="58"/>
-      <c r="I12" s="54"/>
+      <c r="H12" s="54"/>
+      <c r="I12" s="50"/>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
-      <c r="L12" s="81"/>
+      <c r="L12" s="77"/>
       <c r="M12" s="28"/>
     </row>
     <row r="13" spans="1:13">
-      <c r="A13" s="48">
+      <c r="A13" s="45">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="B13" s="62" t="s">
+      <c r="B13" s="58" t="s">
         <v>14</v>
       </c>
       <c r="C13" s="9" t="s">
@@ -1652,25 +1644,25 @@
       <c r="E13" s="9">
         <v>7</v>
       </c>
-      <c r="F13" s="22"/>
+      <c r="F13" s="99"/>
       <c r="G13" s="9">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="H13" s="58" t="s">
+      <c r="H13" s="54" t="s">
         <v>29</v>
       </c>
-      <c r="I13" s="54"/>
+      <c r="I13" s="50"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
-      <c r="L13" s="81"/>
+      <c r="L13" s="77"/>
     </row>
     <row r="14" spans="1:13">
-      <c r="A14" s="48">
+      <c r="A14" s="45">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="B14" s="61" t="s">
+      <c r="B14" s="57" t="s">
         <v>8</v>
       </c>
       <c r="C14" s="9" t="s">
@@ -1680,25 +1672,25 @@
       <c r="E14" s="9">
         <v>50</v>
       </c>
-      <c r="F14" s="30">
+      <c r="F14" s="99">
         <v>5</v>
       </c>
       <c r="G14" s="9">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
-      <c r="H14" s="58"/>
-      <c r="I14" s="54"/>
+      <c r="H14" s="54"/>
+      <c r="I14" s="50"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
-      <c r="L14" s="81"/>
+      <c r="L14" s="77"/>
     </row>
     <row r="15" spans="1:13">
-      <c r="A15" s="48">
+      <c r="A15" s="45">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="B15" s="61" t="s">
+      <c r="B15" s="57" t="s">
         <v>11</v>
       </c>
       <c r="C15" s="9" t="s">
@@ -1708,39 +1700,41 @@
       <c r="E15" s="12">
         <v>60</v>
       </c>
-      <c r="F15" s="22"/>
+      <c r="F15" s="99">
+        <v>14</v>
+      </c>
       <c r="G15" s="9">
         <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-      <c r="H15" s="58"/>
-      <c r="I15" s="54"/>
+        <v>46</v>
+      </c>
+      <c r="H15" s="54"/>
+      <c r="I15" s="50"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
-      <c r="L15" s="81"/>
+      <c r="L15" s="77"/>
     </row>
     <row r="16" spans="1:13" ht="13.8" thickBot="1">
-      <c r="A16" s="49">
+      <c r="A16" s="46">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="B16" s="63" t="s">
+      <c r="B16" s="59" t="s">
         <v>13</v>
       </c>
       <c r="C16" s="9"/>
-      <c r="D16" s="51"/>
-      <c r="E16" s="51"/>
-      <c r="F16" s="50"/>
-      <c r="G16" s="51"/>
-      <c r="H16" s="59"/>
-      <c r="I16" s="55"/>
-      <c r="J16" s="74"/>
-      <c r="K16" s="51"/>
-      <c r="L16" s="81"/>
+      <c r="D16" s="47"/>
+      <c r="E16" s="47"/>
+      <c r="F16" s="100"/>
+      <c r="G16" s="47"/>
+      <c r="H16" s="55"/>
+      <c r="I16" s="51"/>
+      <c r="J16" s="70"/>
+      <c r="K16" s="47"/>
+      <c r="L16" s="77"/>
     </row>
     <row r="17" spans="1:12">
-      <c r="A17" s="72"/>
-      <c r="B17" s="71"/>
+      <c r="A17" s="68"/>
+      <c r="B17" s="67"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
@@ -1752,7 +1746,7 @@
     </row>
     <row r="18" spans="1:12" ht="16.2" thickBot="1">
       <c r="A18" s="1"/>
-      <c r="B18" s="73" t="s">
+      <c r="B18" s="69" t="s">
         <v>10</v>
       </c>
       <c r="C18" s="13"/>
@@ -1762,94 +1756,94 @@
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
-      <c r="J18" s="75"/>
-      <c r="K18" s="75"/>
-      <c r="L18" s="75"/>
+      <c r="J18" s="71"/>
+      <c r="K18" s="71"/>
+      <c r="L18" s="71"/>
     </row>
     <row r="19" spans="1:12" ht="66.599999999999994" thickBot="1">
-      <c r="A19" s="39" t="s">
+      <c r="A19" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="B19" s="40" t="s">
+      <c r="B19" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="C19" s="40" t="s">
+      <c r="C19" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="40" t="s">
+      <c r="D19" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="E19" s="40" t="s">
+      <c r="E19" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="F19" s="40" t="s">
+      <c r="F19" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="G19" s="41" t="s">
+      <c r="G19" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="H19" s="42" t="s">
+      <c r="H19" s="40" t="s">
         <v>25</v>
       </c>
-      <c r="I19" s="43" t="s">
+      <c r="I19" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="J19" s="76"/>
-      <c r="K19" s="76"/>
-      <c r="L19" s="76"/>
+      <c r="J19" s="72"/>
+      <c r="K19" s="72"/>
+      <c r="L19" s="72"/>
     </row>
     <row r="20" spans="1:12">
-      <c r="A20" s="82">
+      <c r="A20" s="78">
         <f>E5*700000</f>
         <v>16800000</v>
       </c>
-      <c r="B20" s="84"/>
-      <c r="C20" s="86"/>
-      <c r="D20" s="84"/>
-      <c r="E20" s="91">
+      <c r="B20" s="80"/>
+      <c r="C20" s="82"/>
+      <c r="D20" s="80"/>
+      <c r="E20" s="87">
         <v>6000000</v>
       </c>
-      <c r="F20" s="91">
+      <c r="F20" s="87">
         <v>6381000</v>
       </c>
-      <c r="G20" s="38">
+      <c r="G20" s="36">
         <f>F20/A$20</f>
         <v>0.37982142857142859</v>
       </c>
-      <c r="H20" s="97">
+      <c r="H20" s="93">
         <f>A20-F20</f>
         <v>10419000</v>
       </c>
-      <c r="I20" s="87">
+      <c r="I20" s="83">
         <f>1-G20</f>
         <v>0.62017857142857147</v>
       </c>
-      <c r="J20" s="77"/>
-      <c r="K20" s="68"/>
-      <c r="L20" s="68"/>
+      <c r="J20" s="73"/>
+      <c r="K20" s="64"/>
+      <c r="L20" s="64"/>
     </row>
     <row r="21" spans="1:12" ht="12.75" customHeight="1">
-      <c r="A21" s="48"/>
-      <c r="B21" s="85">
+      <c r="A21" s="45"/>
+      <c r="B21" s="81">
         <v>43530</v>
       </c>
-      <c r="C21" s="85">
+      <c r="C21" s="81">
         <v>43535</v>
       </c>
-      <c r="D21" s="85">
+      <c r="D21" s="81">
         <v>43538</v>
       </c>
-      <c r="E21" s="92">
+      <c r="E21" s="88">
         <v>525474</v>
       </c>
-      <c r="F21" s="92">
+      <c r="F21" s="88">
         <v>856087</v>
       </c>
-      <c r="G21" s="38">
+      <c r="G21" s="36">
         <f>F21/A20</f>
         <v>5.0957559523809523E-2</v>
       </c>
-      <c r="H21" s="93">
+      <c r="H21" s="89">
         <f t="shared" ref="H21:I23" si="2">H20-F21</f>
         <v>9562913</v>
       </c>
@@ -1872,17 +1866,17 @@
       <c r="D22" s="10">
         <v>76442</v>
       </c>
-      <c r="E22" s="93">
+      <c r="E22" s="89">
         <v>1188810</v>
       </c>
-      <c r="F22" s="93">
+      <c r="F22" s="89">
         <v>1358486</v>
       </c>
-      <c r="G22" s="38">
+      <c r="G22" s="36">
         <f>F22/A20</f>
         <v>8.0862261904761909E-2</v>
       </c>
-      <c r="H22" s="93">
+      <c r="H22" s="89">
         <f t="shared" si="2"/>
         <v>8204427</v>
       </c>
@@ -1890,9 +1884,9 @@
         <f t="shared" si="2"/>
         <v>0.48835875000000001</v>
       </c>
-      <c r="J22" s="77"/>
-      <c r="K22" s="68"/>
-      <c r="L22" s="68"/>
+      <c r="J22" s="73"/>
+      <c r="K22" s="64"/>
+      <c r="L22" s="64"/>
     </row>
     <row r="23" spans="1:12">
       <c r="A23" s="14"/>
@@ -1903,17 +1897,17 @@
         <v>43652</v>
       </c>
       <c r="D23" s="22"/>
-      <c r="E23" s="94">
+      <c r="E23" s="90">
         <v>629370</v>
       </c>
-      <c r="F23" s="94">
+      <c r="F23" s="90">
         <v>661738</v>
       </c>
-      <c r="G23" s="38">
+      <c r="G23" s="36">
         <f>F23/A$20</f>
         <v>3.938916666666667E-2</v>
       </c>
-      <c r="H23" s="93">
+      <c r="H23" s="89">
         <f t="shared" si="2"/>
         <v>7542689</v>
       </c>
@@ -1921,8 +1915,8 @@
         <f t="shared" si="2"/>
         <v>0.44896958333333337</v>
       </c>
-      <c r="J23" s="77"/>
-      <c r="K23" s="77"/>
+      <c r="J23" s="73"/>
+      <c r="K23" s="73"/>
       <c r="L23" s="1"/>
     </row>
     <row r="24" spans="1:12">
@@ -1936,17 +1930,17 @@
       <c r="D24" s="10">
         <v>43735</v>
       </c>
-      <c r="E24" s="93">
+      <c r="E24" s="89">
         <v>927072</v>
       </c>
-      <c r="F24" s="93">
+      <c r="F24" s="89">
         <v>1010437</v>
       </c>
-      <c r="G24" s="38">
+      <c r="G24" s="36">
         <f>F24/A$20</f>
         <v>6.0145059523809524E-2</v>
       </c>
-      <c r="H24" s="93">
+      <c r="H24" s="89">
         <f t="shared" ref="H24" si="3">H23-F24</f>
         <v>6532252</v>
       </c>
@@ -1954,8 +1948,8 @@
         <f t="shared" ref="I24" si="4">I23-G24</f>
         <v>0.38882452380952381</v>
       </c>
-      <c r="J24" s="77"/>
-      <c r="K24" s="78"/>
+      <c r="J24" s="73"/>
+      <c r="K24" s="74"/>
       <c r="L24" s="1"/>
     </row>
     <row r="25" spans="1:12">
@@ -1969,17 +1963,17 @@
       <c r="D25" s="10">
         <v>43789</v>
       </c>
-      <c r="E25" s="93">
+      <c r="E25" s="89">
         <v>616712</v>
       </c>
-      <c r="F25" s="93">
+      <c r="F25" s="89">
         <v>679277</v>
       </c>
-      <c r="G25" s="38">
+      <c r="G25" s="36">
         <f>F25/A$20</f>
         <v>4.043315476190476E-2</v>
       </c>
-      <c r="H25" s="93">
+      <c r="H25" s="89">
         <f t="shared" ref="H25" si="5">H24-F25</f>
         <v>5852975</v>
       </c>
@@ -1987,36 +1981,74 @@
         <f t="shared" ref="I25" si="6">I24-G25</f>
         <v>0.34839136904761903</v>
       </c>
-      <c r="J25" s="77"/>
-      <c r="K25" s="77"/>
+      <c r="J25" s="73"/>
+      <c r="K25" s="73"/>
       <c r="L25" s="1"/>
     </row>
     <row r="26" spans="1:12">
       <c r="A26" s="14"/>
-      <c r="B26" s="10"/>
-      <c r="C26" s="10"/>
-      <c r="D26" s="10"/>
-      <c r="E26" s="93"/>
-      <c r="F26" s="93"/>
-      <c r="G26" s="25"/>
-      <c r="H26" s="93"/>
-      <c r="I26" s="27"/>
-      <c r="J26" s="77"/>
-      <c r="K26" s="77"/>
+      <c r="B26" s="10">
+        <v>43795</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D26" s="10">
+        <v>43801</v>
+      </c>
+      <c r="E26" s="89">
+        <v>787212</v>
+      </c>
+      <c r="F26" s="89">
+        <v>839549</v>
+      </c>
+      <c r="G26" s="36">
+        <f>F26/A$20</f>
+        <v>4.997315476190476E-2</v>
+      </c>
+      <c r="H26" s="89">
+        <f t="shared" ref="H26" si="7">H25-F26</f>
+        <v>5013426</v>
+      </c>
+      <c r="I26" s="27">
+        <f t="shared" ref="I26" si="8">I25-G26</f>
+        <v>0.29841821428571425</v>
+      </c>
+      <c r="J26" s="73"/>
+      <c r="K26" s="73"/>
       <c r="L26" s="1"/>
     </row>
     <row r="27" spans="1:12">
       <c r="A27" s="14"/>
-      <c r="B27" s="10"/>
-      <c r="C27" s="10"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="93"/>
-      <c r="F27" s="93"/>
-      <c r="G27" s="25"/>
-      <c r="H27" s="93"/>
-      <c r="I27" s="27"/>
-      <c r="J27" s="77"/>
-      <c r="K27" s="77"/>
+      <c r="B27" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C27" s="10">
+        <v>43801</v>
+      </c>
+      <c r="D27" s="10">
+        <v>43803</v>
+      </c>
+      <c r="E27" s="89">
+        <v>339660</v>
+      </c>
+      <c r="F27" s="89">
+        <v>342403</v>
+      </c>
+      <c r="G27" s="25">
+        <f>F27/A$20</f>
+        <v>2.0381130952380953E-2</v>
+      </c>
+      <c r="H27" s="89">
+        <f t="shared" ref="H27" si="9">H26-F27</f>
+        <v>4671023</v>
+      </c>
+      <c r="I27" s="27">
+        <f t="shared" ref="I27" si="10">I26-G27</f>
+        <v>0.27803708333333327</v>
+      </c>
+      <c r="J27" s="73"/>
+      <c r="K27" s="73"/>
       <c r="L27" s="1"/>
     </row>
     <row r="28" spans="1:12">
@@ -2024,13 +2056,13 @@
       <c r="B28" s="10"/>
       <c r="C28" s="10"/>
       <c r="D28" s="22"/>
-      <c r="E28" s="94"/>
-      <c r="F28" s="93"/>
+      <c r="E28" s="90"/>
+      <c r="F28" s="89"/>
       <c r="G28" s="26"/>
-      <c r="H28" s="93"/>
-      <c r="I28" s="88"/>
-      <c r="J28" s="77"/>
-      <c r="K28" s="77"/>
+      <c r="H28" s="89"/>
+      <c r="I28" s="84"/>
+      <c r="J28" s="73"/>
+      <c r="K28" s="73"/>
       <c r="L28" s="1"/>
     </row>
     <row r="29" spans="1:12">
@@ -2038,25 +2070,25 @@
       <c r="B29" s="10"/>
       <c r="C29" s="10"/>
       <c r="D29" s="22"/>
-      <c r="E29" s="94"/>
-      <c r="F29" s="93"/>
+      <c r="E29" s="90"/>
+      <c r="F29" s="89"/>
       <c r="G29" s="25"/>
-      <c r="H29" s="93"/>
-      <c r="I29" s="88"/>
-      <c r="J29" s="77"/>
-      <c r="K29" s="77"/>
+      <c r="H29" s="89"/>
+      <c r="I29" s="84"/>
+      <c r="J29" s="73"/>
+      <c r="K29" s="73"/>
       <c r="L29" s="1"/>
     </row>
     <row r="30" spans="1:12" ht="13.8" thickBot="1">
       <c r="A30" s="15"/>
       <c r="B30" s="16"/>
       <c r="C30" s="16"/>
-      <c r="D30" s="89"/>
-      <c r="E30" s="95"/>
-      <c r="F30" s="96"/>
+      <c r="D30" s="85"/>
+      <c r="E30" s="91"/>
+      <c r="F30" s="92"/>
       <c r="G30" s="23"/>
-      <c r="H30" s="98"/>
-      <c r="I30" s="90"/>
+      <c r="H30" s="94"/>
+      <c r="I30" s="86"/>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
@@ -2068,29 +2100,29 @@
       <c r="B31" s="18"/>
       <c r="C31" s="18"/>
       <c r="D31" s="19"/>
-      <c r="E31" s="100">
+      <c r="E31" s="96">
         <f>SUM(E20:E30)</f>
-        <v>9887438</v>
-      </c>
-      <c r="F31" s="101">
+        <v>11014310</v>
+      </c>
+      <c r="F31" s="97">
         <f>SUM(F20:F30)</f>
-        <v>10947025</v>
+        <v>12128977</v>
       </c>
       <c r="G31" s="24">
         <f>SUM(G20:G30)</f>
-        <v>0.65160863095238108</v>
+        <v>0.72196291666666679</v>
       </c>
       <c r="H31" s="20">
         <f>A20-F31</f>
-        <v>5852975</v>
+        <v>4671023</v>
       </c>
       <c r="I31" s="29">
         <f>1-G31</f>
-        <v>0.34839136904761892</v>
-      </c>
-      <c r="J31" s="79"/>
-      <c r="K31" s="79"/>
-      <c r="L31" s="79"/>
+        <v>0.27803708333333321</v>
+      </c>
+      <c r="J31" s="75"/>
+      <c r="K31" s="75"/>
+      <c r="L31" s="75"/>
     </row>
     <row r="34" spans="1:11">
       <c r="A34" s="1"/>
@@ -2105,12 +2137,12 @@
       <c r="J34" s="1"/>
     </row>
     <row r="35" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A35" s="103" t="s">
+      <c r="A35" s="102" t="s">
         <v>16</v>
       </c>
-      <c r="B35" s="103"/>
-      <c r="C35" s="103"/>
-      <c r="D35" s="103"/>
+      <c r="B35" s="102"/>
+      <c r="C35" s="102"/>
+      <c r="D35" s="102"/>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
@@ -2119,10 +2151,10 @@
       <c r="J35" s="1"/>
     </row>
     <row r="36" spans="1:11">
-      <c r="A36" s="112" t="s">
+      <c r="A36" s="111" t="s">
         <v>17</v>
       </c>
-      <c r="B36" s="112"/>
+      <c r="B36" s="111"/>
       <c r="C36" s="11" t="s">
         <v>18</v>
       </c>
@@ -2137,27 +2169,27 @@
       <c r="J36" s="1"/>
     </row>
     <row r="37" spans="1:11">
-      <c r="A37" s="110">
+      <c r="A37" s="109">
         <f>A20-F31</f>
-        <v>5852975</v>
-      </c>
-      <c r="B37" s="111"/>
-      <c r="C37" s="83">
+        <v>4671023</v>
+      </c>
+      <c r="B37" s="110"/>
+      <c r="C37" s="79">
         <f>1-G31</f>
-        <v>0.34839136904761892</v>
+        <v>0.27803708333333321</v>
       </c>
       <c r="D37" s="21">
         <f>(C37/0.8)*100</f>
-        <v>43.548921130952358</v>
-      </c>
-      <c r="E37" s="99" t="s">
+        <v>34.754635416666652</v>
+      </c>
+      <c r="E37" s="95" t="s">
         <v>42</v>
       </c>
-      <c r="F37" s="99"/>
-      <c r="G37" s="99"/>
-      <c r="H37" s="99"/>
-      <c r="I37" s="99"/>
-      <c r="J37" s="99"/>
+      <c r="F37" s="95"/>
+      <c r="G37" s="95"/>
+      <c r="H37" s="95"/>
+      <c r="I37" s="95"/>
+      <c r="J37" s="95"/>
     </row>
     <row r="38" spans="1:11">
       <c r="A38" s="1"/>
@@ -2195,113 +2227,113 @@
       <c r="J40" s="1"/>
     </row>
     <row r="41" spans="1:11">
-      <c r="A41" s="64"/>
-      <c r="B41" s="64"/>
-      <c r="C41" s="64"/>
-      <c r="D41" s="64"/>
-      <c r="E41" s="64"/>
-      <c r="F41" s="64"/>
-      <c r="G41" s="64"/>
-      <c r="H41" s="64"/>
-      <c r="I41" s="108"/>
-      <c r="J41" s="109"/>
+      <c r="A41" s="60"/>
+      <c r="B41" s="60"/>
+      <c r="C41" s="60"/>
+      <c r="D41" s="60"/>
+      <c r="E41" s="60"/>
+      <c r="F41" s="60"/>
+      <c r="G41" s="60"/>
+      <c r="H41" s="60"/>
+      <c r="I41" s="107"/>
+      <c r="J41" s="108"/>
     </row>
     <row r="42" spans="1:11">
-      <c r="A42" s="65"/>
-      <c r="B42" s="66"/>
-      <c r="C42" s="66"/>
+      <c r="A42" s="61"/>
+      <c r="B42" s="62"/>
+      <c r="C42" s="62"/>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
-      <c r="F42" s="66"/>
-      <c r="G42" s="67"/>
-      <c r="H42" s="66"/>
+      <c r="F42" s="62"/>
+      <c r="G42" s="63"/>
+      <c r="H42" s="62"/>
     </row>
     <row r="43" spans="1:11">
-      <c r="A43" s="65"/>
-      <c r="B43" s="66"/>
-      <c r="C43" s="66"/>
-      <c r="D43" s="66"/>
-      <c r="E43" s="66"/>
-      <c r="F43" s="66"/>
-      <c r="G43" s="67"/>
-      <c r="H43" s="66"/>
+      <c r="A43" s="61"/>
+      <c r="B43" s="62"/>
+      <c r="C43" s="62"/>
+      <c r="D43" s="62"/>
+      <c r="E43" s="62"/>
+      <c r="F43" s="62"/>
+      <c r="G43" s="63"/>
+      <c r="H43" s="62"/>
     </row>
     <row r="44" spans="1:11">
-      <c r="A44" s="65"/>
-      <c r="B44" s="66"/>
-      <c r="C44" s="66"/>
+      <c r="A44" s="61"/>
+      <c r="B44" s="62"/>
+      <c r="C44" s="62"/>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
-      <c r="F44" s="66"/>
-      <c r="G44" s="67"/>
-      <c r="H44" s="66"/>
+      <c r="F44" s="62"/>
+      <c r="G44" s="63"/>
+      <c r="H44" s="62"/>
     </row>
     <row r="45" spans="1:11">
-      <c r="A45" s="65"/>
-      <c r="B45" s="66"/>
-      <c r="C45" s="66"/>
-      <c r="D45" s="66"/>
-      <c r="E45" s="66"/>
-      <c r="F45" s="66"/>
-      <c r="G45" s="67"/>
-      <c r="H45" s="66"/>
+      <c r="A45" s="61"/>
+      <c r="B45" s="62"/>
+      <c r="C45" s="62"/>
+      <c r="D45" s="62"/>
+      <c r="E45" s="62"/>
+      <c r="F45" s="62"/>
+      <c r="G45" s="63"/>
+      <c r="H45" s="62"/>
     </row>
     <row r="46" spans="1:11">
-      <c r="A46" s="65"/>
-      <c r="B46" s="66"/>
-      <c r="C46" s="66"/>
+      <c r="A46" s="61"/>
+      <c r="B46" s="62"/>
+      <c r="C46" s="62"/>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
-      <c r="F46" s="66"/>
-      <c r="G46" s="67"/>
-      <c r="H46" s="66"/>
+      <c r="F46" s="62"/>
+      <c r="G46" s="63"/>
+      <c r="H46" s="62"/>
     </row>
     <row r="47" spans="1:11">
-      <c r="A47" s="65"/>
-      <c r="B47" s="66"/>
-      <c r="C47" s="68"/>
-      <c r="D47" s="69"/>
-      <c r="E47" s="69"/>
-      <c r="F47" s="68"/>
-      <c r="G47" s="68"/>
-      <c r="H47" s="68"/>
+      <c r="A47" s="61"/>
+      <c r="B47" s="62"/>
+      <c r="C47" s="64"/>
+      <c r="D47" s="65"/>
+      <c r="E47" s="65"/>
+      <c r="F47" s="64"/>
+      <c r="G47" s="64"/>
+      <c r="H47" s="64"/>
     </row>
     <row r="48" spans="1:11">
-      <c r="A48" s="65"/>
-      <c r="B48" s="66"/>
-      <c r="C48" s="66"/>
-      <c r="D48" s="66"/>
-      <c r="E48" s="66"/>
-      <c r="F48" s="66"/>
-      <c r="G48" s="67"/>
-      <c r="H48" s="66"/>
+      <c r="A48" s="61"/>
+      <c r="B48" s="62"/>
+      <c r="C48" s="62"/>
+      <c r="D48" s="62"/>
+      <c r="E48" s="62"/>
+      <c r="F48" s="62"/>
+      <c r="G48" s="63"/>
+      <c r="H48" s="62"/>
     </row>
     <row r="49" spans="1:10">
-      <c r="A49" s="65"/>
-      <c r="B49" s="66"/>
-      <c r="C49" s="66"/>
-      <c r="D49" s="66"/>
-      <c r="E49" s="66"/>
-      <c r="F49" s="66"/>
-      <c r="G49" s="67"/>
-      <c r="H49" s="66"/>
+      <c r="A49" s="61"/>
+      <c r="B49" s="62"/>
+      <c r="C49" s="62"/>
+      <c r="D49" s="62"/>
+      <c r="E49" s="62"/>
+      <c r="F49" s="62"/>
+      <c r="G49" s="63"/>
+      <c r="H49" s="62"/>
     </row>
     <row r="50" spans="1:10">
-      <c r="A50" s="65"/>
-      <c r="B50" s="66"/>
-      <c r="C50" s="66"/>
+      <c r="A50" s="61"/>
+      <c r="B50" s="62"/>
+      <c r="C50" s="62"/>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
-      <c r="F50" s="66"/>
-      <c r="G50" s="67"/>
-      <c r="H50" s="66"/>
+      <c r="F50" s="62"/>
+      <c r="G50" s="63"/>
+      <c r="H50" s="62"/>
     </row>
     <row r="51" spans="1:10" ht="15.6">
       <c r="A51" s="1"/>
-      <c r="B51" s="105"/>
-      <c r="C51" s="105"/>
-      <c r="D51" s="106"/>
-      <c r="E51" s="70"/>
+      <c r="B51" s="104"/>
+      <c r="C51" s="104"/>
+      <c r="D51" s="105"/>
+      <c r="E51" s="66"/>
       <c r="F51" s="1"/>
       <c r="G51" s="1"/>
       <c r="H51" s="1"/>
@@ -2309,40 +2341,40 @@
       <c r="J51" s="1"/>
     </row>
     <row r="52" spans="1:10">
-      <c r="A52" s="64"/>
-      <c r="B52" s="64"/>
-      <c r="C52" s="64"/>
-      <c r="D52" s="64"/>
-      <c r="E52" s="64"/>
-      <c r="F52" s="64"/>
-      <c r="G52" s="64"/>
-      <c r="H52" s="64"/>
-      <c r="I52" s="108"/>
-      <c r="J52" s="109"/>
+      <c r="A52" s="60"/>
+      <c r="B52" s="60"/>
+      <c r="C52" s="60"/>
+      <c r="D52" s="60"/>
+      <c r="E52" s="60"/>
+      <c r="F52" s="60"/>
+      <c r="G52" s="60"/>
+      <c r="H52" s="60"/>
+      <c r="I52" s="107"/>
+      <c r="J52" s="108"/>
     </row>
     <row r="53" spans="1:10">
-      <c r="A53" s="65"/>
+      <c r="A53" s="61"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
-      <c r="F53" s="67"/>
-      <c r="G53" s="67"/>
-      <c r="H53" s="66"/>
-      <c r="I53" s="104"/>
-      <c r="J53" s="104"/>
+      <c r="F53" s="63"/>
+      <c r="G53" s="63"/>
+      <c r="H53" s="62"/>
+      <c r="I53" s="103"/>
+      <c r="J53" s="103"/>
     </row>
     <row r="54" spans="1:10">
-      <c r="A54" s="65"/>
+      <c r="A54" s="61"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
-      <c r="D54" s="68"/>
-      <c r="E54" s="68"/>
-      <c r="F54" s="68"/>
-      <c r="G54" s="68"/>
-      <c r="H54" s="68"/>
-      <c r="I54" s="104"/>
-      <c r="J54" s="104"/>
+      <c r="D54" s="64"/>
+      <c r="E54" s="64"/>
+      <c r="F54" s="64"/>
+      <c r="G54" s="64"/>
+      <c r="H54" s="64"/>
+      <c r="I54" s="103"/>
+      <c r="J54" s="103"/>
     </row>
     <row r="55" spans="1:10">
       <c r="A55" s="1"/>
@@ -2355,12 +2387,12 @@
       <c r="H55" s="1"/>
     </row>
     <row r="60" spans="1:10">
-      <c r="B60" s="108"/>
-      <c r="C60" s="109"/>
+      <c r="B60" s="107"/>
+      <c r="C60" s="108"/>
     </row>
     <row r="67" spans="2:3">
-      <c r="B67" s="108"/>
-      <c r="C67" s="109"/>
+      <c r="B67" s="107"/>
+      <c r="C67" s="108"/>
     </row>
   </sheetData>
   <sortState ref="B9:B16">

--- a/Участок ремонта форм/Формокомплекты/Паспорта/Бутылки/Водочные/XXI-B-28-2-500-27 (Евроторг 0.5 л.).xlsx
+++ b/Участок ремонта форм/Формокомплекты/Паспорта/Бутылки/Водочные/XXI-B-28-2-500-27 (Евроторг 0.5 л.).xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="47">
   <si>
     <t>№Поз</t>
   </si>
@@ -159,6 +159,12 @@
   </si>
   <si>
     <t>стоит</t>
+  </si>
+  <si>
+    <t>Черновые формы испльзуес с Кристалл 0,5 л. (Фирменная 0,5 л.)</t>
+  </si>
+  <si>
+    <t>Вес, г. ( ном. вес 363 г.)</t>
   </si>
 </sst>
 </file>
@@ -719,7 +725,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="112">
+  <cellXfs count="117">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1004,6 +1010,21 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1317,8 +1338,8 @@
   </sheetPr>
   <dimension ref="A1:M67"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A13" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26:I27"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="C7" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -1332,7 +1353,7 @@
     <col min="7" max="7" width="12.5546875" customWidth="1"/>
     <col min="8" max="8" width="13.44140625" customWidth="1"/>
     <col min="9" max="9" width="12.5546875" customWidth="1"/>
-    <col min="10" max="10" width="10.44140625" customWidth="1"/>
+    <col min="10" max="10" width="7.33203125" customWidth="1"/>
     <col min="11" max="11" width="11.6640625" customWidth="1"/>
     <col min="12" max="12" width="9.33203125" customWidth="1"/>
   </cols>
@@ -1428,7 +1449,9 @@
       <c r="C5" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="D5" s="44"/>
+      <c r="D5" s="44">
+        <v>24</v>
+      </c>
       <c r="E5" s="44">
         <v>24</v>
       </c>
@@ -1454,7 +1477,9 @@
       <c r="C6" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="D6" s="9"/>
+      <c r="D6" s="9">
+        <v>24</v>
+      </c>
       <c r="E6" s="9">
         <v>24</v>
       </c>
@@ -1480,7 +1505,9 @@
       <c r="C7" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="9"/>
+      <c r="D7" s="9">
+        <v>28</v>
+      </c>
       <c r="E7" s="9">
         <v>28</v>
       </c>
@@ -1506,7 +1533,9 @@
       <c r="C8" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="D8" s="9"/>
+      <c r="D8" s="9">
+        <v>28</v>
+      </c>
       <c r="E8" s="9">
         <v>28</v>
       </c>
@@ -1532,7 +1561,9 @@
       <c r="C9" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="D9" s="9"/>
+      <c r="D9" s="9">
+        <v>22</v>
+      </c>
       <c r="E9" s="9">
         <v>22</v>
       </c>
@@ -1558,14 +1589,16 @@
       <c r="C10" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="D10" s="9"/>
+      <c r="D10" s="9">
+        <v>20</v>
+      </c>
       <c r="E10" s="9">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F10" s="99"/>
       <c r="G10" s="9">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H10" s="54"/>
       <c r="I10" s="49"/>
@@ -1584,16 +1617,18 @@
       <c r="C11" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="D11" s="9"/>
+      <c r="D11" s="9">
+        <v>60</v>
+      </c>
       <c r="E11" s="9">
         <v>60</v>
       </c>
       <c r="F11" s="99">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="G11" s="9">
         <f t="shared" si="0"/>
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="H11" s="54"/>
       <c r="I11" s="50"/>
@@ -1613,14 +1648,16 @@
       <c r="C12" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="D12" s="9"/>
+      <c r="D12" s="9">
+        <v>21</v>
+      </c>
       <c r="E12" s="9">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F12" s="99"/>
       <c r="G12" s="9">
         <f t="shared" si="0"/>
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="H12" s="54"/>
       <c r="I12" s="50"/>
@@ -1640,7 +1677,9 @@
       <c r="C13" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="D13" s="9"/>
+      <c r="D13" s="9">
+        <v>7</v>
+      </c>
       <c r="E13" s="9">
         <v>7</v>
       </c>
@@ -1668,16 +1707,18 @@
       <c r="C14" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="D14" s="9"/>
+      <c r="D14" s="9">
+        <v>50</v>
+      </c>
       <c r="E14" s="9">
         <v>50</v>
       </c>
       <c r="F14" s="99">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G14" s="9">
         <f t="shared" si="0"/>
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H14" s="54"/>
       <c r="I14" s="50"/>
@@ -1696,16 +1737,18 @@
       <c r="C15" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="D15" s="9"/>
+      <c r="D15" s="9">
+        <v>60</v>
+      </c>
       <c r="E15" s="12">
         <v>60</v>
       </c>
       <c r="F15" s="99">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G15" s="9">
         <f t="shared" si="0"/>
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H15" s="54"/>
       <c r="I15" s="50"/>
@@ -1733,7 +1776,9 @@
       <c r="L16" s="77"/>
     </row>
     <row r="17" spans="1:12">
-      <c r="A17" s="68"/>
+      <c r="A17" s="68" t="s">
+        <v>45</v>
+      </c>
       <c r="B17" s="67"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
@@ -1788,7 +1833,9 @@
       <c r="I19" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="J19" s="72"/>
+      <c r="J19" s="41" t="s">
+        <v>46</v>
+      </c>
       <c r="K19" s="72"/>
       <c r="L19" s="72"/>
     </row>
@@ -1818,7 +1865,7 @@
         <f>1-G20</f>
         <v>0.62017857142857147</v>
       </c>
-      <c r="J20" s="73"/>
+      <c r="J20" s="112"/>
       <c r="K20" s="64"/>
       <c r="L20" s="64"/>
     </row>
@@ -1844,14 +1891,14 @@
         <v>5.0957559523809523E-2</v>
       </c>
       <c r="H21" s="89">
-        <f t="shared" ref="H21:I23" si="2">H20-F21</f>
+        <f t="shared" ref="H21:J23" si="2">H20-F21</f>
         <v>9562913</v>
       </c>
       <c r="I21" s="27">
         <f t="shared" si="2"/>
         <v>0.56922101190476193</v>
       </c>
-      <c r="J21" s="1"/>
+      <c r="J21" s="113"/>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
     </row>
@@ -1884,7 +1931,7 @@
         <f t="shared" si="2"/>
         <v>0.48835875000000001</v>
       </c>
-      <c r="J22" s="73"/>
+      <c r="J22" s="113"/>
       <c r="K22" s="64"/>
       <c r="L22" s="64"/>
     </row>
@@ -1904,7 +1951,7 @@
         <v>661738</v>
       </c>
       <c r="G23" s="36">
-        <f>F23/A$20</f>
+        <f t="shared" ref="G23:G28" si="3">F23/A$20</f>
         <v>3.938916666666667E-2</v>
       </c>
       <c r="H23" s="89">
@@ -1915,7 +1962,7 @@
         <f t="shared" si="2"/>
         <v>0.44896958333333337</v>
       </c>
-      <c r="J23" s="73"/>
+      <c r="J23" s="113"/>
       <c r="K23" s="73"/>
       <c r="L23" s="1"/>
     </row>
@@ -1937,18 +1984,18 @@
         <v>1010437</v>
       </c>
       <c r="G24" s="36">
-        <f>F24/A$20</f>
+        <f t="shared" si="3"/>
         <v>6.0145059523809524E-2</v>
       </c>
       <c r="H24" s="89">
-        <f t="shared" ref="H24" si="3">H23-F24</f>
+        <f t="shared" ref="H24" si="4">H23-F24</f>
         <v>6532252</v>
       </c>
       <c r="I24" s="27">
-        <f t="shared" ref="I24" si="4">I23-G24</f>
+        <f t="shared" ref="I24:J24" si="5">I23-G24</f>
         <v>0.38882452380952381</v>
       </c>
-      <c r="J24" s="73"/>
+      <c r="J24" s="113"/>
       <c r="K24" s="74"/>
       <c r="L24" s="1"/>
     </row>
@@ -1970,18 +2017,18 @@
         <v>679277</v>
       </c>
       <c r="G25" s="36">
-        <f>F25/A$20</f>
+        <f t="shared" si="3"/>
         <v>4.043315476190476E-2</v>
       </c>
       <c r="H25" s="89">
-        <f t="shared" ref="H25" si="5">H24-F25</f>
+        <f t="shared" ref="H25" si="6">H24-F25</f>
         <v>5852975</v>
       </c>
       <c r="I25" s="27">
-        <f t="shared" ref="I25" si="6">I24-G25</f>
+        <f t="shared" ref="I25:J25" si="7">I24-G25</f>
         <v>0.34839136904761903</v>
       </c>
-      <c r="J25" s="73"/>
+      <c r="J25" s="113"/>
       <c r="K25" s="73"/>
       <c r="L25" s="1"/>
     </row>
@@ -2003,18 +2050,18 @@
         <v>839549</v>
       </c>
       <c r="G26" s="36">
-        <f>F26/A$20</f>
+        <f t="shared" si="3"/>
         <v>4.997315476190476E-2</v>
       </c>
       <c r="H26" s="89">
-        <f t="shared" ref="H26" si="7">H25-F26</f>
+        <f t="shared" ref="H26" si="8">H25-F26</f>
         <v>5013426</v>
       </c>
       <c r="I26" s="27">
-        <f t="shared" ref="I26" si="8">I25-G26</f>
+        <f t="shared" ref="I26:J26" si="9">I25-G26</f>
         <v>0.29841821428571425</v>
       </c>
-      <c r="J26" s="73"/>
+      <c r="J26" s="113"/>
       <c r="K26" s="73"/>
       <c r="L26" s="1"/>
     </row>
@@ -2036,32 +2083,53 @@
         <v>342403</v>
       </c>
       <c r="G27" s="25">
-        <f>F27/A$20</f>
+        <f t="shared" si="3"/>
         <v>2.0381130952380953E-2</v>
       </c>
       <c r="H27" s="89">
-        <f t="shared" ref="H27" si="9">H26-F27</f>
+        <f t="shared" ref="H27" si="10">H26-F27</f>
         <v>4671023</v>
       </c>
       <c r="I27" s="27">
-        <f t="shared" ref="I27" si="10">I26-G27</f>
+        <f t="shared" ref="I27:J27" si="11">I26-G27</f>
         <v>0.27803708333333327</v>
       </c>
-      <c r="J27" s="73"/>
+      <c r="J27" s="113"/>
       <c r="K27" s="73"/>
       <c r="L27" s="1"/>
     </row>
     <row r="28" spans="1:12">
       <c r="A28" s="14"/>
-      <c r="B28" s="10"/>
-      <c r="C28" s="10"/>
-      <c r="D28" s="22"/>
-      <c r="E28" s="90"/>
-      <c r="F28" s="89"/>
-      <c r="G28" s="26"/>
-      <c r="H28" s="89"/>
-      <c r="I28" s="84"/>
-      <c r="J28" s="73"/>
+      <c r="B28" s="10">
+        <v>43894</v>
+      </c>
+      <c r="C28" s="10">
+        <v>43899</v>
+      </c>
+      <c r="D28" s="10">
+        <v>43900</v>
+      </c>
+      <c r="E28" s="90">
+        <v>937062</v>
+      </c>
+      <c r="F28" s="89">
+        <v>1009377</v>
+      </c>
+      <c r="G28" s="26">
+        <f t="shared" si="3"/>
+        <v>6.0081964285714287E-2</v>
+      </c>
+      <c r="H28" s="89">
+        <f t="shared" ref="H28" si="12">H27-F28</f>
+        <v>3661646</v>
+      </c>
+      <c r="I28" s="27">
+        <f t="shared" ref="I28:J28" si="13">I27-G28</f>
+        <v>0.21795511904761899</v>
+      </c>
+      <c r="J28" s="113">
+        <v>370</v>
+      </c>
       <c r="K28" s="73"/>
       <c r="L28" s="1"/>
     </row>
@@ -2075,7 +2143,7 @@
       <c r="G29" s="25"/>
       <c r="H29" s="89"/>
       <c r="I29" s="84"/>
-      <c r="J29" s="73"/>
+      <c r="J29" s="114"/>
       <c r="K29" s="73"/>
       <c r="L29" s="1"/>
     </row>
@@ -2089,7 +2157,7 @@
       <c r="G30" s="23"/>
       <c r="H30" s="94"/>
       <c r="I30" s="86"/>
-      <c r="J30" s="1"/>
+      <c r="J30" s="115"/>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
     </row>
@@ -2102,25 +2170,25 @@
       <c r="D31" s="19"/>
       <c r="E31" s="96">
         <f>SUM(E20:E30)</f>
-        <v>11014310</v>
+        <v>11951372</v>
       </c>
       <c r="F31" s="97">
         <f>SUM(F20:F30)</f>
-        <v>12128977</v>
+        <v>13138354</v>
       </c>
       <c r="G31" s="24">
         <f>SUM(G20:G30)</f>
-        <v>0.72196291666666679</v>
+        <v>0.78204488095238112</v>
       </c>
       <c r="H31" s="20">
         <f>A20-F31</f>
-        <v>4671023</v>
+        <v>3661646</v>
       </c>
       <c r="I31" s="29">
         <f>1-G31</f>
-        <v>0.27803708333333321</v>
-      </c>
-      <c r="J31" s="75"/>
+        <v>0.21795511904761888</v>
+      </c>
+      <c r="J31" s="116"/>
       <c r="K31" s="75"/>
       <c r="L31" s="75"/>
     </row>
@@ -2171,16 +2239,16 @@
     <row r="37" spans="1:11">
       <c r="A37" s="109">
         <f>A20-F31</f>
-        <v>4671023</v>
+        <v>3661646</v>
       </c>
       <c r="B37" s="110"/>
       <c r="C37" s="79">
         <f>1-G31</f>
-        <v>0.27803708333333321</v>
+        <v>0.21795511904761888</v>
       </c>
       <c r="D37" s="21">
         <f>(C37/0.8)*100</f>
-        <v>34.754635416666652</v>
+        <v>27.244389880952358</v>
       </c>
       <c r="E37" s="95" t="s">
         <v>42</v>
@@ -2415,7 +2483,7 @@
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.51181102362204722" footer="0.51181102362204722"/>
-  <pageSetup paperSize="9" scale="93" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="95" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <rowBreaks count="1" manualBreakCount="1">
     <brk id="37" max="12" man="1"/>

--- a/Участок ремонта форм/Формокомплекты/Паспорта/Бутылки/Водочные/XXI-B-28-2-500-27 (Евроторг 0.5 л.).xlsx
+++ b/Участок ремонта форм/Формокомплекты/Паспорта/Бутылки/Водочные/XXI-B-28-2-500-27 (Евроторг 0.5 л.).xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21601"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Гавриленко А.Д\Работа\Участок ремонта форм\Формокомплекты\Паспорта\Бутылки\Водочные\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E4538EF-86EB-46A5-BFDA-7B141AC045F6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="12" windowWidth="18780" windowHeight="11760"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -17,9 +18,16 @@
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Лист1!$A$1:$L$37</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Лист1!$A$1:$L$42</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -170,7 +178,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="5">
     <numFmt numFmtId="164" formatCode="_-* #,##0.00_р_._-;\-* #,##0.00_р_._-;_-* &quot;-&quot;??_р_._-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0_р_._-;\-* #,##0_р_._-;_-* &quot;-&quot;??_р_._-;_-@_-"/>
@@ -178,7 +186,7 @@
     <numFmt numFmtId="167" formatCode="0.0%"/>
     <numFmt numFmtId="168" formatCode="#,##0_ ;\-#,##0\ "/>
   </numFmts>
-  <fonts count="16">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial Cyr"/>
@@ -725,7 +733,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="117">
+  <cellXfs count="116">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -938,9 +946,6 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -985,6 +990,21 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1010,21 +1030,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1122,6 +1127,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1157,6 +1179,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -1332,56 +1371,56 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:M67"/>
+  <dimension ref="A1:M72"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="C7" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="J29" sqref="J29"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A7" zoomScale="120" zoomScaleSheetLayoutView="120" workbookViewId="0">
+      <selection activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.109375" customWidth="1"/>
+    <col min="1" max="1" width="12.140625" customWidth="1"/>
     <col min="2" max="2" width="20" customWidth="1"/>
     <col min="3" max="3" width="16" customWidth="1"/>
-    <col min="4" max="4" width="10.88671875" customWidth="1"/>
-    <col min="5" max="5" width="13.6640625" customWidth="1"/>
-    <col min="6" max="6" width="14.88671875" customWidth="1"/>
-    <col min="7" max="7" width="12.5546875" customWidth="1"/>
-    <col min="8" max="8" width="13.44140625" customWidth="1"/>
-    <col min="9" max="9" width="12.5546875" customWidth="1"/>
-    <col min="10" max="10" width="7.33203125" customWidth="1"/>
-    <col min="11" max="11" width="11.6640625" customWidth="1"/>
-    <col min="12" max="12" width="9.33203125" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" customWidth="1"/>
+    <col min="7" max="7" width="12.5703125" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" customWidth="1"/>
+    <col min="9" max="9" width="12.5703125" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" customWidth="1"/>
+    <col min="11" max="11" width="11.7109375" customWidth="1"/>
+    <col min="12" max="12" width="9.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15.6">
-      <c r="A1" s="101" t="s">
+    <row r="1" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="105" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="101"/>
-      <c r="C1" s="101"/>
-      <c r="D1" s="101"/>
-      <c r="E1" s="101"/>
-      <c r="F1" s="101"/>
-      <c r="G1" s="101"/>
-      <c r="H1" s="101"/>
-      <c r="I1" s="101"/>
-      <c r="J1" s="101"/>
-      <c r="K1" s="101"/>
-      <c r="L1" s="101"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="106" t="s">
+      <c r="B1" s="105"/>
+      <c r="C1" s="105"/>
+      <c r="D1" s="105"/>
+      <c r="E1" s="105"/>
+      <c r="F1" s="105"/>
+      <c r="G1" s="105"/>
+      <c r="H1" s="105"/>
+      <c r="I1" s="105"/>
+      <c r="J1" s="105"/>
+      <c r="K1" s="105"/>
+      <c r="L1" s="105"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2" s="110" t="s">
         <v>40</v>
       </c>
-      <c r="B2" s="106"/>
-      <c r="C2" s="106"/>
-      <c r="D2" s="106"/>
-      <c r="E2" s="106"/>
+      <c r="B2" s="110"/>
+      <c r="C2" s="110"/>
+      <c r="D2" s="110"/>
+      <c r="E2" s="110"/>
       <c r="F2" s="30"/>
       <c r="G2" s="3"/>
       <c r="H2" s="4"/>
@@ -1389,7 +1428,7 @@
       <c r="L2" s="31"/>
       <c r="M2" s="1"/>
     </row>
-    <row r="3" spans="1:13" ht="16.2" thickBot="1">
+    <row r="3" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -1401,7 +1440,7 @@
       <c r="K3" s="31"/>
       <c r="M3" s="13"/>
     </row>
-    <row r="4" spans="1:13" ht="66.599999999999994" thickBot="1">
+    <row r="4" spans="1:13" ht="64.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="32" t="s">
         <v>0</v>
       </c>
@@ -1439,7 +1478,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="42">
         <v>1</v>
       </c>
@@ -1455,7 +1494,7 @@
       <c r="E5" s="44">
         <v>24</v>
       </c>
-      <c r="F5" s="98"/>
+      <c r="F5" s="97"/>
       <c r="G5" s="44">
         <f>E5-F5</f>
         <v>24</v>
@@ -1466,7 +1505,7 @@
       <c r="K5" s="43"/>
       <c r="L5" s="76"/>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="45">
         <f>A5+1</f>
         <v>2</v>
@@ -1483,7 +1522,7 @@
       <c r="E6" s="9">
         <v>24</v>
       </c>
-      <c r="F6" s="99"/>
+      <c r="F6" s="98"/>
       <c r="G6" s="9">
         <f t="shared" ref="G6:G15" si="0">E6-F6</f>
         <v>24</v>
@@ -1494,7 +1533,7 @@
       <c r="K6" s="8"/>
       <c r="L6" s="77"/>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="45">
         <f t="shared" ref="A7:A16" si="1">A6+1</f>
         <v>3</v>
@@ -1511,7 +1550,7 @@
       <c r="E7" s="9">
         <v>28</v>
       </c>
-      <c r="F7" s="99"/>
+      <c r="F7" s="98"/>
       <c r="G7" s="9">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -1522,7 +1561,7 @@
       <c r="K7" s="8"/>
       <c r="L7" s="77"/>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="45">
         <f t="shared" si="1"/>
         <v>4</v>
@@ -1539,7 +1578,7 @@
       <c r="E8" s="9">
         <v>28</v>
       </c>
-      <c r="F8" s="99"/>
+      <c r="F8" s="98"/>
       <c r="G8" s="9">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -1550,7 +1589,7 @@
       <c r="K8" s="8"/>
       <c r="L8" s="77"/>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="45">
         <f t="shared" si="1"/>
         <v>5</v>
@@ -1567,7 +1606,7 @@
       <c r="E9" s="9">
         <v>22</v>
       </c>
-      <c r="F9" s="99"/>
+      <c r="F9" s="98"/>
       <c r="G9" s="9">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -1578,7 +1617,7 @@
       <c r="K9" s="9"/>
       <c r="L9" s="77"/>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="45">
         <f t="shared" si="1"/>
         <v>6</v>
@@ -1595,7 +1634,7 @@
       <c r="E10" s="9">
         <v>19</v>
       </c>
-      <c r="F10" s="99"/>
+      <c r="F10" s="98"/>
       <c r="G10" s="9">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -1606,7 +1645,7 @@
       <c r="K10" s="8"/>
       <c r="L10" s="77"/>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="45">
         <f t="shared" si="1"/>
         <v>7</v>
@@ -1623,7 +1662,7 @@
       <c r="E11" s="9">
         <v>60</v>
       </c>
-      <c r="F11" s="99">
+      <c r="F11" s="98">
         <v>4</v>
       </c>
       <c r="G11" s="9">
@@ -1637,7 +1676,7 @@
       <c r="L11" s="77"/>
       <c r="M11" s="28"/>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="45">
         <f t="shared" si="1"/>
         <v>8</v>
@@ -1654,7 +1693,7 @@
       <c r="E12" s="9">
         <v>17</v>
       </c>
-      <c r="F12" s="99"/>
+      <c r="F12" s="98"/>
       <c r="G12" s="9">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -1666,7 +1705,7 @@
       <c r="L12" s="77"/>
       <c r="M12" s="28"/>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="45">
         <f t="shared" si="1"/>
         <v>9</v>
@@ -1683,7 +1722,7 @@
       <c r="E13" s="9">
         <v>7</v>
       </c>
-      <c r="F13" s="99"/>
+      <c r="F13" s="98"/>
       <c r="G13" s="9">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1696,7 +1735,7 @@
       <c r="K13" s="9"/>
       <c r="L13" s="77"/>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" s="45">
         <f t="shared" si="1"/>
         <v>10</v>
@@ -1713,7 +1752,7 @@
       <c r="E14" s="9">
         <v>50</v>
       </c>
-      <c r="F14" s="99">
+      <c r="F14" s="98">
         <v>4</v>
       </c>
       <c r="G14" s="9">
@@ -1726,7 +1765,7 @@
       <c r="K14" s="9"/>
       <c r="L14" s="77"/>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" s="45">
         <f t="shared" si="1"/>
         <v>11</v>
@@ -1743,7 +1782,7 @@
       <c r="E15" s="12">
         <v>60</v>
       </c>
-      <c r="F15" s="99">
+      <c r="F15" s="98">
         <v>15</v>
       </c>
       <c r="G15" s="9">
@@ -1756,7 +1795,7 @@
       <c r="K15" s="9"/>
       <c r="L15" s="77"/>
     </row>
-    <row r="16" spans="1:13" ht="13.8" thickBot="1">
+    <row r="16" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="46">
         <f t="shared" si="1"/>
         <v>12</v>
@@ -1767,7 +1806,7 @@
       <c r="C16" s="9"/>
       <c r="D16" s="47"/>
       <c r="E16" s="47"/>
-      <c r="F16" s="100"/>
+      <c r="F16" s="99"/>
       <c r="G16" s="47"/>
       <c r="H16" s="55"/>
       <c r="I16" s="51"/>
@@ -1775,7 +1814,7 @@
       <c r="K16" s="47"/>
       <c r="L16" s="77"/>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="68" t="s">
         <v>45</v>
       </c>
@@ -1789,7 +1828,7 @@
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
     </row>
-    <row r="18" spans="1:12" ht="16.2" thickBot="1">
+    <row r="18" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="69" t="s">
         <v>10</v>
@@ -1805,7 +1844,7 @@
       <c r="K18" s="71"/>
       <c r="L18" s="71"/>
     </row>
-    <row r="19" spans="1:12" ht="66.599999999999994" thickBot="1">
+    <row r="19" spans="1:12" ht="64.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="37" t="s">
         <v>23</v>
       </c>
@@ -1839,7 +1878,7 @@
       <c r="K19" s="72"/>
       <c r="L19" s="72"/>
     </row>
-    <row r="20" spans="1:12">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="78">
         <f>E5*700000</f>
         <v>16800000</v>
@@ -1847,17 +1886,17 @@
       <c r="B20" s="80"/>
       <c r="C20" s="82"/>
       <c r="D20" s="80"/>
-      <c r="E20" s="87">
+      <c r="E20" s="86">
         <v>6000000</v>
       </c>
-      <c r="F20" s="87">
+      <c r="F20" s="86">
         <v>6381000</v>
       </c>
       <c r="G20" s="36">
         <f>F20/A$20</f>
         <v>0.37982142857142859</v>
       </c>
-      <c r="H20" s="93">
+      <c r="H20" s="92">
         <f>A20-F20</f>
         <v>10419000</v>
       </c>
@@ -1865,11 +1904,11 @@
         <f>1-G20</f>
         <v>0.62017857142857147</v>
       </c>
-      <c r="J20" s="112"/>
+      <c r="J20" s="100"/>
       <c r="K20" s="64"/>
       <c r="L20" s="64"/>
     </row>
-    <row r="21" spans="1:12" ht="12.75" customHeight="1">
+    <row r="21" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="45"/>
       <c r="B21" s="81">
         <v>43530</v>
@@ -1880,29 +1919,29 @@
       <c r="D21" s="81">
         <v>43538</v>
       </c>
-      <c r="E21" s="88">
+      <c r="E21" s="87">
         <v>525474</v>
       </c>
-      <c r="F21" s="88">
+      <c r="F21" s="87">
         <v>856087</v>
       </c>
       <c r="G21" s="36">
         <f>F21/A20</f>
         <v>5.0957559523809523E-2</v>
       </c>
-      <c r="H21" s="89">
-        <f t="shared" ref="H21:J23" si="2">H20-F21</f>
+      <c r="H21" s="88">
+        <f t="shared" ref="H21:I23" si="2">H20-F21</f>
         <v>9562913</v>
       </c>
       <c r="I21" s="27">
         <f t="shared" si="2"/>
         <v>0.56922101190476193</v>
       </c>
-      <c r="J21" s="113"/>
+      <c r="J21" s="101"/>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
     </row>
-    <row r="22" spans="1:12" ht="12.75" customHeight="1">
+    <row r="22" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="14"/>
       <c r="B22" s="10">
         <v>43558</v>
@@ -1913,17 +1952,17 @@
       <c r="D22" s="10">
         <v>76442</v>
       </c>
-      <c r="E22" s="89">
+      <c r="E22" s="88">
         <v>1188810</v>
       </c>
-      <c r="F22" s="89">
+      <c r="F22" s="88">
         <v>1358486</v>
       </c>
       <c r="G22" s="36">
         <f>F22/A20</f>
         <v>8.0862261904761909E-2</v>
       </c>
-      <c r="H22" s="89">
+      <c r="H22" s="88">
         <f t="shared" si="2"/>
         <v>8204427</v>
       </c>
@@ -1931,11 +1970,11 @@
         <f t="shared" si="2"/>
         <v>0.48835875000000001</v>
       </c>
-      <c r="J22" s="113"/>
+      <c r="J22" s="101"/>
       <c r="K22" s="64"/>
       <c r="L22" s="64"/>
     </row>
-    <row r="23" spans="1:12">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="14"/>
       <c r="B23" s="10">
         <v>43648</v>
@@ -1944,17 +1983,17 @@
         <v>43652</v>
       </c>
       <c r="D23" s="22"/>
-      <c r="E23" s="90">
+      <c r="E23" s="89">
         <v>629370</v>
       </c>
-      <c r="F23" s="90">
+      <c r="F23" s="89">
         <v>661738</v>
       </c>
       <c r="G23" s="36">
-        <f t="shared" ref="G23:G28" si="3">F23/A$20</f>
+        <f t="shared" ref="G23:G29" si="3">F23/A$20</f>
         <v>3.938916666666667E-2</v>
       </c>
-      <c r="H23" s="89">
+      <c r="H23" s="88">
         <f t="shared" si="2"/>
         <v>7542689</v>
       </c>
@@ -1962,11 +2001,11 @@
         <f t="shared" si="2"/>
         <v>0.44896958333333337</v>
       </c>
-      <c r="J23" s="113"/>
+      <c r="J23" s="101"/>
       <c r="K23" s="73"/>
       <c r="L23" s="1"/>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="14"/>
       <c r="B24" s="10">
         <v>43726</v>
@@ -1977,29 +2016,29 @@
       <c r="D24" s="10">
         <v>43735</v>
       </c>
-      <c r="E24" s="89">
+      <c r="E24" s="88">
         <v>927072</v>
       </c>
-      <c r="F24" s="89">
+      <c r="F24" s="88">
         <v>1010437</v>
       </c>
       <c r="G24" s="36">
         <f t="shared" si="3"/>
         <v>6.0145059523809524E-2</v>
       </c>
-      <c r="H24" s="89">
+      <c r="H24" s="88">
         <f t="shared" ref="H24" si="4">H23-F24</f>
         <v>6532252</v>
       </c>
       <c r="I24" s="27">
-        <f t="shared" ref="I24:J24" si="5">I23-G24</f>
+        <f t="shared" ref="I24" si="5">I23-G24</f>
         <v>0.38882452380952381</v>
       </c>
-      <c r="J24" s="113"/>
+      <c r="J24" s="101"/>
       <c r="K24" s="74"/>
       <c r="L24" s="1"/>
     </row>
-    <row r="25" spans="1:12">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="14"/>
       <c r="B25" s="10">
         <v>43783</v>
@@ -2010,29 +2049,29 @@
       <c r="D25" s="10">
         <v>43789</v>
       </c>
-      <c r="E25" s="89">
+      <c r="E25" s="88">
         <v>616712</v>
       </c>
-      <c r="F25" s="89">
+      <c r="F25" s="88">
         <v>679277</v>
       </c>
       <c r="G25" s="36">
         <f t="shared" si="3"/>
         <v>4.043315476190476E-2</v>
       </c>
-      <c r="H25" s="89">
+      <c r="H25" s="88">
         <f t="shared" ref="H25" si="6">H24-F25</f>
         <v>5852975</v>
       </c>
       <c r="I25" s="27">
-        <f t="shared" ref="I25:J25" si="7">I24-G25</f>
+        <f t="shared" ref="I25" si="7">I24-G25</f>
         <v>0.34839136904761903</v>
       </c>
-      <c r="J25" s="113"/>
+      <c r="J25" s="101"/>
       <c r="K25" s="73"/>
       <c r="L25" s="1"/>
     </row>
-    <row r="26" spans="1:12">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="14"/>
       <c r="B26" s="10">
         <v>43795</v>
@@ -2043,29 +2082,29 @@
       <c r="D26" s="10">
         <v>43801</v>
       </c>
-      <c r="E26" s="89">
+      <c r="E26" s="88">
         <v>787212</v>
       </c>
-      <c r="F26" s="89">
+      <c r="F26" s="88">
         <v>839549</v>
       </c>
       <c r="G26" s="36">
         <f t="shared" si="3"/>
         <v>4.997315476190476E-2</v>
       </c>
-      <c r="H26" s="89">
+      <c r="H26" s="88">
         <f t="shared" ref="H26" si="8">H25-F26</f>
         <v>5013426</v>
       </c>
       <c r="I26" s="27">
-        <f t="shared" ref="I26:J26" si="9">I25-G26</f>
+        <f t="shared" ref="I26" si="9">I25-G26</f>
         <v>0.29841821428571425</v>
       </c>
-      <c r="J26" s="113"/>
+      <c r="J26" s="101"/>
       <c r="K26" s="73"/>
       <c r="L26" s="1"/>
     </row>
-    <row r="27" spans="1:12">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="14"/>
       <c r="B27" s="10" t="s">
         <v>44</v>
@@ -2076,29 +2115,29 @@
       <c r="D27" s="10">
         <v>43803</v>
       </c>
-      <c r="E27" s="89">
+      <c r="E27" s="88">
         <v>339660</v>
       </c>
-      <c r="F27" s="89">
+      <c r="F27" s="88">
         <v>342403</v>
       </c>
       <c r="G27" s="25">
         <f t="shared" si="3"/>
         <v>2.0381130952380953E-2</v>
       </c>
-      <c r="H27" s="89">
+      <c r="H27" s="88">
         <f t="shared" ref="H27" si="10">H26-F27</f>
         <v>4671023</v>
       </c>
       <c r="I27" s="27">
-        <f t="shared" ref="I27:J27" si="11">I26-G27</f>
+        <f t="shared" ref="I27" si="11">I26-G27</f>
         <v>0.27803708333333327</v>
       </c>
-      <c r="J27" s="113"/>
+      <c r="J27" s="101"/>
       <c r="K27" s="73"/>
       <c r="L27" s="1"/>
     </row>
-    <row r="28" spans="1:12">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="14"/>
       <c r="B28" s="10">
         <v>43894</v>
@@ -2109,165 +2148,181 @@
       <c r="D28" s="10">
         <v>43900</v>
       </c>
-      <c r="E28" s="90">
+      <c r="E28" s="89">
         <v>937062</v>
       </c>
-      <c r="F28" s="89">
+      <c r="F28" s="88">
         <v>1009377</v>
       </c>
       <c r="G28" s="26">
         <f t="shared" si="3"/>
         <v>6.0081964285714287E-2</v>
       </c>
-      <c r="H28" s="89">
+      <c r="H28" s="88">
         <f t="shared" ref="H28" si="12">H27-F28</f>
         <v>3661646</v>
       </c>
       <c r="I28" s="27">
-        <f t="shared" ref="I28:J28" si="13">I27-G28</f>
+        <f t="shared" ref="I28" si="13">I27-G28</f>
         <v>0.21795511904761899</v>
       </c>
-      <c r="J28" s="113">
+      <c r="J28" s="101">
         <v>370</v>
       </c>
       <c r="K28" s="73"/>
       <c r="L28" s="1"/>
     </row>
-    <row r="29" spans="1:12">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="14"/>
-      <c r="B29" s="10"/>
-      <c r="C29" s="10"/>
-      <c r="D29" s="22"/>
-      <c r="E29" s="90"/>
-      <c r="F29" s="89"/>
-      <c r="G29" s="25"/>
-      <c r="H29" s="89"/>
-      <c r="I29" s="84"/>
-      <c r="J29" s="114"/>
+      <c r="B29" s="10">
+        <v>43962</v>
+      </c>
+      <c r="C29" s="10">
+        <v>43967</v>
+      </c>
+      <c r="D29" s="10">
+        <v>43972</v>
+      </c>
+      <c r="E29" s="89">
+        <v>957042</v>
+      </c>
+      <c r="F29" s="88">
+        <v>1017446</v>
+      </c>
+      <c r="G29" s="25">
+        <f t="shared" si="3"/>
+        <v>6.0562261904761903E-2</v>
+      </c>
+      <c r="H29" s="88">
+        <f t="shared" ref="H29" si="14">H28-F29</f>
+        <v>2644200</v>
+      </c>
+      <c r="I29" s="27">
+        <f t="shared" ref="I29" si="15">I28-G29</f>
+        <v>0.15739285714285708</v>
+      </c>
+      <c r="J29" s="102">
+        <v>372</v>
+      </c>
       <c r="K29" s="73"/>
       <c r="L29" s="1"/>
     </row>
-    <row r="30" spans="1:12" ht="13.8" thickBot="1">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" s="15"/>
       <c r="B30" s="16"/>
       <c r="C30" s="16"/>
-      <c r="D30" s="85"/>
-      <c r="E30" s="91"/>
-      <c r="F30" s="92"/>
+      <c r="D30" s="84"/>
+      <c r="E30" s="90"/>
+      <c r="F30" s="91"/>
       <c r="G30" s="23"/>
-      <c r="H30" s="94"/>
-      <c r="I30" s="86"/>
-      <c r="J30" s="115"/>
-      <c r="K30" s="1"/>
+      <c r="H30" s="91"/>
+      <c r="I30" s="85"/>
+      <c r="J30" s="103"/>
+      <c r="K30" s="73"/>
       <c r="L30" s="1"/>
     </row>
-    <row r="31" spans="1:12" ht="13.8" thickBot="1">
-      <c r="A31" s="17" t="s">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A31" s="15"/>
+      <c r="B31" s="16"/>
+      <c r="C31" s="16"/>
+      <c r="D31" s="84"/>
+      <c r="E31" s="90"/>
+      <c r="F31" s="91"/>
+      <c r="G31" s="23"/>
+      <c r="H31" s="91"/>
+      <c r="I31" s="85"/>
+      <c r="J31" s="103"/>
+      <c r="K31" s="73"/>
+      <c r="L31" s="1"/>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A32" s="15"/>
+      <c r="B32" s="16"/>
+      <c r="C32" s="16"/>
+      <c r="D32" s="84"/>
+      <c r="E32" s="90"/>
+      <c r="F32" s="91"/>
+      <c r="G32" s="23"/>
+      <c r="H32" s="91"/>
+      <c r="I32" s="85"/>
+      <c r="J32" s="103"/>
+      <c r="K32" s="73"/>
+      <c r="L32" s="1"/>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A33" s="15"/>
+      <c r="B33" s="16"/>
+      <c r="C33" s="16"/>
+      <c r="D33" s="84"/>
+      <c r="E33" s="90"/>
+      <c r="F33" s="91"/>
+      <c r="G33" s="23"/>
+      <c r="H33" s="91"/>
+      <c r="I33" s="85"/>
+      <c r="J33" s="103"/>
+      <c r="K33" s="73"/>
+      <c r="L33" s="1"/>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A34" s="15"/>
+      <c r="B34" s="16"/>
+      <c r="C34" s="16"/>
+      <c r="D34" s="84"/>
+      <c r="E34" s="90"/>
+      <c r="F34" s="91"/>
+      <c r="G34" s="23"/>
+      <c r="H34" s="91"/>
+      <c r="I34" s="85"/>
+      <c r="J34" s="103"/>
+      <c r="K34" s="73"/>
+      <c r="L34" s="1"/>
+    </row>
+    <row r="35" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="15"/>
+      <c r="B35" s="16"/>
+      <c r="C35" s="16"/>
+      <c r="D35" s="84"/>
+      <c r="E35" s="90"/>
+      <c r="F35" s="91"/>
+      <c r="G35" s="23"/>
+      <c r="H35" s="93"/>
+      <c r="I35" s="85"/>
+      <c r="J35" s="103"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="1"/>
+    </row>
+    <row r="36" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="B31" s="18"/>
-      <c r="C31" s="18"/>
-      <c r="D31" s="19"/>
-      <c r="E31" s="96">
-        <f>SUM(E20:E30)</f>
-        <v>11951372</v>
-      </c>
-      <c r="F31" s="97">
-        <f>SUM(F20:F30)</f>
-        <v>13138354</v>
-      </c>
-      <c r="G31" s="24">
-        <f>SUM(G20:G30)</f>
-        <v>0.78204488095238112</v>
-      </c>
-      <c r="H31" s="20">
-        <f>A20-F31</f>
-        <v>3661646</v>
-      </c>
-      <c r="I31" s="29">
-        <f>1-G31</f>
-        <v>0.21795511904761888</v>
-      </c>
-      <c r="J31" s="116"/>
-      <c r="K31" s="75"/>
-      <c r="L31" s="75"/>
-    </row>
-    <row r="34" spans="1:11">
-      <c r="A34" s="1"/>
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
-      <c r="G34" s="1"/>
-      <c r="H34" s="1"/>
-      <c r="I34" s="1"/>
-      <c r="J34" s="1"/>
-    </row>
-    <row r="35" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A35" s="102" t="s">
-        <v>16</v>
-      </c>
-      <c r="B35" s="102"/>
-      <c r="C35" s="102"/>
-      <c r="D35" s="102"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
-      <c r="G35" s="1"/>
-      <c r="H35" s="1"/>
-      <c r="I35" s="1"/>
-      <c r="J35" s="1"/>
-    </row>
-    <row r="36" spans="1:11">
-      <c r="A36" s="111" t="s">
-        <v>17</v>
-      </c>
-      <c r="B36" s="111"/>
-      <c r="C36" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="D36" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
-      <c r="G36" s="1"/>
-      <c r="H36" s="1"/>
-      <c r="I36" s="1"/>
-      <c r="J36" s="1"/>
-    </row>
-    <row r="37" spans="1:11">
-      <c r="A37" s="109">
-        <f>A20-F31</f>
-        <v>3661646</v>
-      </c>
-      <c r="B37" s="110"/>
-      <c r="C37" s="79">
-        <f>1-G31</f>
-        <v>0.21795511904761888</v>
-      </c>
-      <c r="D37" s="21">
-        <f>(C37/0.8)*100</f>
-        <v>27.244389880952358</v>
-      </c>
-      <c r="E37" s="95" t="s">
-        <v>42</v>
-      </c>
-      <c r="F37" s="95"/>
-      <c r="G37" s="95"/>
-      <c r="H37" s="95"/>
-      <c r="I37" s="95"/>
-      <c r="J37" s="95"/>
-    </row>
-    <row r="38" spans="1:11">
-      <c r="A38" s="1"/>
-      <c r="B38" s="1"/>
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
-      <c r="F38" s="1"/>
-    </row>
-    <row r="39" spans="1:11">
+      <c r="B36" s="18"/>
+      <c r="C36" s="18"/>
+      <c r="D36" s="19"/>
+      <c r="E36" s="95">
+        <f>SUM(E20:E35)</f>
+        <v>12908414</v>
+      </c>
+      <c r="F36" s="96">
+        <f>SUM(F20:F35)</f>
+        <v>14155800</v>
+      </c>
+      <c r="G36" s="24">
+        <f>SUM(G20:G35)</f>
+        <v>0.842607142857143</v>
+      </c>
+      <c r="H36" s="20">
+        <f>A20-F36</f>
+        <v>2644200</v>
+      </c>
+      <c r="I36" s="29">
+        <f>1-G36</f>
+        <v>0.157392857142857</v>
+      </c>
+      <c r="J36" s="104"/>
+      <c r="K36" s="75"/>
+      <c r="L36" s="75"/>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -2278,15 +2333,14 @@
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
       <c r="J39" s="1"/>
-      <c r="K39" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" ht="15.6">
-      <c r="A40" s="1"/>
-      <c r="B40" s="7"/>
-      <c r="C40" s="7"/>
-      <c r="D40" s="1"/>
+    </row>
+    <row r="40" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="106" t="s">
+        <v>16</v>
+      </c>
+      <c r="B40" s="106"/>
+      <c r="C40" s="106"/>
+      <c r="D40" s="106"/>
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
@@ -2294,79 +2348,105 @@
       <c r="I40" s="1"/>
       <c r="J40" s="1"/>
     </row>
-    <row r="41" spans="1:11">
-      <c r="A41" s="60"/>
-      <c r="B41" s="60"/>
-      <c r="C41" s="60"/>
-      <c r="D41" s="60"/>
-      <c r="E41" s="60"/>
-      <c r="F41" s="60"/>
-      <c r="G41" s="60"/>
-      <c r="H41" s="60"/>
-      <c r="I41" s="107"/>
-      <c r="J41" s="108"/>
-    </row>
-    <row r="42" spans="1:11">
-      <c r="A42" s="61"/>
-      <c r="B42" s="62"/>
-      <c r="C42" s="62"/>
-      <c r="D42" s="1"/>
-      <c r="E42" s="1"/>
-      <c r="F42" s="62"/>
-      <c r="G42" s="63"/>
-      <c r="H42" s="62"/>
-    </row>
-    <row r="43" spans="1:11">
-      <c r="A43" s="61"/>
-      <c r="B43" s="62"/>
-      <c r="C43" s="62"/>
-      <c r="D43" s="62"/>
-      <c r="E43" s="62"/>
-      <c r="F43" s="62"/>
-      <c r="G43" s="63"/>
-      <c r="H43" s="62"/>
-    </row>
-    <row r="44" spans="1:11">
-      <c r="A44" s="61"/>
-      <c r="B44" s="62"/>
-      <c r="C44" s="62"/>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A41" s="115" t="s">
+        <v>17</v>
+      </c>
+      <c r="B41" s="115"/>
+      <c r="C41" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D41" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="1"/>
+      <c r="J41" s="1"/>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A42" s="113">
+        <f>A20-F36</f>
+        <v>2644200</v>
+      </c>
+      <c r="B42" s="114"/>
+      <c r="C42" s="79">
+        <f>1-G36</f>
+        <v>0.157392857142857</v>
+      </c>
+      <c r="D42" s="21">
+        <f>(C42/0.8)*100</f>
+        <v>19.674107142857125</v>
+      </c>
+      <c r="E42" s="94" t="s">
+        <v>42</v>
+      </c>
+      <c r="F42" s="94"/>
+      <c r="G42" s="94"/>
+      <c r="H42" s="94"/>
+      <c r="I42" s="94"/>
+      <c r="J42" s="94"/>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A43" s="1"/>
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A44" s="1"/>
+      <c r="B44" s="1"/>
+      <c r="C44" s="1"/>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
-      <c r="F44" s="62"/>
-      <c r="G44" s="63"/>
-      <c r="H44" s="62"/>
-    </row>
-    <row r="45" spans="1:11">
-      <c r="A45" s="61"/>
-      <c r="B45" s="62"/>
-      <c r="C45" s="62"/>
-      <c r="D45" s="62"/>
-      <c r="E45" s="62"/>
-      <c r="F45" s="62"/>
-      <c r="G45" s="63"/>
-      <c r="H45" s="62"/>
-    </row>
-    <row r="46" spans="1:11">
-      <c r="A46" s="61"/>
-      <c r="B46" s="62"/>
-      <c r="C46" s="62"/>
-      <c r="D46" s="1"/>
-      <c r="E46" s="1"/>
-      <c r="F46" s="62"/>
-      <c r="G46" s="63"/>
-      <c r="H46" s="62"/>
-    </row>
-    <row r="47" spans="1:11">
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
+      <c r="H44" s="1"/>
+      <c r="I44" s="1"/>
+      <c r="J44" s="1"/>
+      <c r="K44" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A45" s="1"/>
+      <c r="B45" s="7"/>
+      <c r="C45" s="7"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1"/>
+      <c r="H45" s="1"/>
+      <c r="I45" s="1"/>
+      <c r="J45" s="1"/>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A46" s="60"/>
+      <c r="B46" s="60"/>
+      <c r="C46" s="60"/>
+      <c r="D46" s="60"/>
+      <c r="E46" s="60"/>
+      <c r="F46" s="60"/>
+      <c r="G46" s="60"/>
+      <c r="H46" s="60"/>
+      <c r="I46" s="111"/>
+      <c r="J46" s="112"/>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A47" s="61"/>
       <c r="B47" s="62"/>
-      <c r="C47" s="64"/>
-      <c r="D47" s="65"/>
-      <c r="E47" s="65"/>
-      <c r="F47" s="64"/>
-      <c r="G47" s="64"/>
-      <c r="H47" s="64"/>
-    </row>
-    <row r="48" spans="1:11">
+      <c r="C47" s="62"/>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1"/>
+      <c r="F47" s="62"/>
+      <c r="G47" s="63"/>
+      <c r="H47" s="62"/>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A48" s="61"/>
       <c r="B48" s="62"/>
       <c r="C48" s="62"/>
@@ -2376,128 +2456,178 @@
       <c r="G48" s="63"/>
       <c r="H48" s="62"/>
     </row>
-    <row r="49" spans="1:10">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49" s="61"/>
       <c r="B49" s="62"/>
       <c r="C49" s="62"/>
-      <c r="D49" s="62"/>
-      <c r="E49" s="62"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1"/>
       <c r="F49" s="62"/>
       <c r="G49" s="63"/>
       <c r="H49" s="62"/>
     </row>
-    <row r="50" spans="1:10">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50" s="61"/>
       <c r="B50" s="62"/>
       <c r="C50" s="62"/>
-      <c r="D50" s="1"/>
-      <c r="E50" s="1"/>
+      <c r="D50" s="62"/>
+      <c r="E50" s="62"/>
       <c r="F50" s="62"/>
       <c r="G50" s="63"/>
       <c r="H50" s="62"/>
     </row>
-    <row r="51" spans="1:10" ht="15.6">
-      <c r="A51" s="1"/>
-      <c r="B51" s="104"/>
-      <c r="C51" s="104"/>
-      <c r="D51" s="105"/>
-      <c r="E51" s="66"/>
-      <c r="F51" s="1"/>
-      <c r="G51" s="1"/>
-      <c r="H51" s="1"/>
-      <c r="I51" s="1"/>
-      <c r="J51" s="1"/>
-    </row>
-    <row r="52" spans="1:10">
-      <c r="A52" s="60"/>
-      <c r="B52" s="60"/>
-      <c r="C52" s="60"/>
-      <c r="D52" s="60"/>
-      <c r="E52" s="60"/>
-      <c r="F52" s="60"/>
-      <c r="G52" s="60"/>
-      <c r="H52" s="60"/>
-      <c r="I52" s="107"/>
-      <c r="J52" s="108"/>
-    </row>
-    <row r="53" spans="1:10">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A51" s="61"/>
+      <c r="B51" s="62"/>
+      <c r="C51" s="62"/>
+      <c r="D51" s="1"/>
+      <c r="E51" s="1"/>
+      <c r="F51" s="62"/>
+      <c r="G51" s="63"/>
+      <c r="H51" s="62"/>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A52" s="61"/>
+      <c r="B52" s="62"/>
+      <c r="C52" s="64"/>
+      <c r="D52" s="65"/>
+      <c r="E52" s="65"/>
+      <c r="F52" s="64"/>
+      <c r="G52" s="64"/>
+      <c r="H52" s="64"/>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A53" s="61"/>
-      <c r="B53" s="1"/>
-      <c r="C53" s="1"/>
-      <c r="D53" s="1"/>
-      <c r="E53" s="1"/>
-      <c r="F53" s="63"/>
+      <c r="B53" s="62"/>
+      <c r="C53" s="62"/>
+      <c r="D53" s="62"/>
+      <c r="E53" s="62"/>
+      <c r="F53" s="62"/>
       <c r="G53" s="63"/>
       <c r="H53" s="62"/>
-      <c r="I53" s="103"/>
-      <c r="J53" s="103"/>
-    </row>
-    <row r="54" spans="1:10">
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54" s="61"/>
-      <c r="B54" s="1"/>
-      <c r="C54" s="1"/>
-      <c r="D54" s="64"/>
-      <c r="E54" s="64"/>
-      <c r="F54" s="64"/>
-      <c r="G54" s="64"/>
-      <c r="H54" s="64"/>
-      <c r="I54" s="103"/>
-      <c r="J54" s="103"/>
-    </row>
-    <row r="55" spans="1:10">
-      <c r="A55" s="1"/>
-      <c r="B55" s="1"/>
-      <c r="C55" s="1"/>
+      <c r="B54" s="62"/>
+      <c r="C54" s="62"/>
+      <c r="D54" s="62"/>
+      <c r="E54" s="62"/>
+      <c r="F54" s="62"/>
+      <c r="G54" s="63"/>
+      <c r="H54" s="62"/>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A55" s="61"/>
+      <c r="B55" s="62"/>
+      <c r="C55" s="62"/>
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
-      <c r="F55" s="1"/>
-      <c r="G55" s="1"/>
-      <c r="H55" s="1"/>
-    </row>
-    <row r="60" spans="1:10">
-      <c r="B60" s="107"/>
-      <c r="C60" s="108"/>
-    </row>
-    <row r="67" spans="2:3">
-      <c r="B67" s="107"/>
-      <c r="C67" s="108"/>
+      <c r="F55" s="62"/>
+      <c r="G55" s="63"/>
+      <c r="H55" s="62"/>
+    </row>
+    <row r="56" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A56" s="1"/>
+      <c r="B56" s="108"/>
+      <c r="C56" s="108"/>
+      <c r="D56" s="109"/>
+      <c r="E56" s="66"/>
+      <c r="F56" s="1"/>
+      <c r="G56" s="1"/>
+      <c r="H56" s="1"/>
+      <c r="I56" s="1"/>
+      <c r="J56" s="1"/>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A57" s="60"/>
+      <c r="B57" s="60"/>
+      <c r="C57" s="60"/>
+      <c r="D57" s="60"/>
+      <c r="E57" s="60"/>
+      <c r="F57" s="60"/>
+      <c r="G57" s="60"/>
+      <c r="H57" s="60"/>
+      <c r="I57" s="111"/>
+      <c r="J57" s="112"/>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A58" s="61"/>
+      <c r="B58" s="1"/>
+      <c r="C58" s="1"/>
+      <c r="D58" s="1"/>
+      <c r="E58" s="1"/>
+      <c r="F58" s="63"/>
+      <c r="G58" s="63"/>
+      <c r="H58" s="62"/>
+      <c r="I58" s="107"/>
+      <c r="J58" s="107"/>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A59" s="61"/>
+      <c r="B59" s="1"/>
+      <c r="C59" s="1"/>
+      <c r="D59" s="64"/>
+      <c r="E59" s="64"/>
+      <c r="F59" s="64"/>
+      <c r="G59" s="64"/>
+      <c r="H59" s="64"/>
+      <c r="I59" s="107"/>
+      <c r="J59" s="107"/>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A60" s="1"/>
+      <c r="B60" s="1"/>
+      <c r="C60" s="1"/>
+      <c r="D60" s="1"/>
+      <c r="E60" s="1"/>
+      <c r="F60" s="1"/>
+      <c r="G60" s="1"/>
+      <c r="H60" s="1"/>
+    </row>
+    <row r="65" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B65" s="111"/>
+      <c r="C65" s="112"/>
+    </row>
+    <row r="72" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B72" s="111"/>
+      <c r="C72" s="112"/>
     </row>
   </sheetData>
   <sortState ref="B9:B16">
     <sortCondition ref="B9"/>
   </sortState>
   <mergeCells count="12">
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="I41:J41"/>
-    <mergeCell ref="I52:J52"/>
-    <mergeCell ref="I53:J53"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="I46:J46"/>
+    <mergeCell ref="I57:J57"/>
+    <mergeCell ref="I58:J58"/>
     <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A35:D35"/>
-    <mergeCell ref="I54:J54"/>
-    <mergeCell ref="B51:D51"/>
+    <mergeCell ref="A40:D40"/>
+    <mergeCell ref="I59:J59"/>
+    <mergeCell ref="B56:D56"/>
     <mergeCell ref="A2:E2"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.51181102362204722" footer="0.51181102362204722"/>
-  <pageSetup paperSize="9" scale="95" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="89" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <rowBreaks count="1" manualBreakCount="1">
-    <brk id="37" max="12" man="1"/>
+    <brk id="42" max="12" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2506,24 +2636,24 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:J18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.88671875" customWidth="1"/>
+    <col min="1" max="1" width="4.85546875" customWidth="1"/>
     <col min="2" max="2" width="22" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" customWidth="1"/>
-    <col min="4" max="4" width="10.44140625" customWidth="1"/>
-    <col min="5" max="5" width="11.5546875" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" customWidth="1"/>
     <col min="6" max="6" width="11" customWidth="1"/>
     <col min="7" max="7" width="14" customWidth="1"/>
-    <col min="8" max="8" width="11.44140625" customWidth="1"/>
-    <col min="9" max="9" width="11.88671875" customWidth="1"/>
+    <col min="8" max="8" width="11.42578125" customWidth="1"/>
+    <col min="9" max="9" width="11.85546875" customWidth="1"/>
   </cols>
   <sheetData/>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/Участок ремонта форм/Формокомплекты/Паспорта/Бутылки/Водочные/XXI-B-28-2-500-27 (Евроторг 0.5 л.).xlsx
+++ b/Участок ремонта форм/Формокомплекты/Паспорта/Бутылки/Водочные/XXI-B-28-2-500-27 (Евроторг 0.5 л.).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Гавриленко А.Д\Работа\Участок ремонта форм\Формокомплекты\Паспорта\Бутылки\Водочные\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E4538EF-86EB-46A5-BFDA-7B141AC045F6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B2F80F6-B671-4CAA-BA76-3A4A179CFF0E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Лист1!$A$1:$L$42</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Лист1!$A$1:$L$43</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="48">
   <si>
     <t>№Поз</t>
   </si>
@@ -173,6 +173,9 @@
   </si>
   <si>
     <t>Вес, г. ( ном. вес 363 г.)</t>
+  </si>
+  <si>
+    <t>Горловые кольца используем с  Калина 0,45</t>
   </si>
 </sst>
 </file>
@@ -733,7 +736,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="116">
+  <cellXfs count="119">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1007,18 +1010,10 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -1031,6 +1026,23 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1375,10 +1387,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:M72"/>
+  <dimension ref="A1:M73"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A7" zoomScale="120" zoomScaleSheetLayoutView="120" workbookViewId="0">
-      <selection activeCell="J30" sqref="J30"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A16" zoomScale="120" zoomScaleSheetLayoutView="120" workbookViewId="0">
+      <selection activeCell="J33" sqref="J33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1398,29 +1410,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="105" t="s">
+      <c r="A1" s="113" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="105"/>
-      <c r="C1" s="105"/>
-      <c r="D1" s="105"/>
-      <c r="E1" s="105"/>
-      <c r="F1" s="105"/>
-      <c r="G1" s="105"/>
-      <c r="H1" s="105"/>
-      <c r="I1" s="105"/>
-      <c r="J1" s="105"/>
-      <c r="K1" s="105"/>
-      <c r="L1" s="105"/>
+      <c r="B1" s="113"/>
+      <c r="C1" s="113"/>
+      <c r="D1" s="113"/>
+      <c r="E1" s="113"/>
+      <c r="F1" s="113"/>
+      <c r="G1" s="113"/>
+      <c r="H1" s="113"/>
+      <c r="I1" s="113"/>
+      <c r="J1" s="113"/>
+      <c r="K1" s="113"/>
+      <c r="L1" s="113"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2" s="110" t="s">
+      <c r="A2" s="117" t="s">
         <v>40</v>
       </c>
-      <c r="B2" s="110"/>
-      <c r="C2" s="110"/>
-      <c r="D2" s="110"/>
-      <c r="E2" s="110"/>
+      <c r="B2" s="117"/>
+      <c r="C2" s="117"/>
+      <c r="D2" s="117"/>
+      <c r="E2" s="117"/>
       <c r="F2" s="30"/>
       <c r="G2" s="3"/>
       <c r="H2" s="4"/>
@@ -1815,290 +1827,273 @@
       <c r="L16" s="77"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A17" s="68" t="s">
+      <c r="A17" s="118" t="s">
+        <v>47</v>
+      </c>
+      <c r="B17" s="118"/>
+      <c r="C17" s="118"/>
+      <c r="D17" s="118"/>
+      <c r="E17" s="118"/>
+      <c r="F17" s="106"/>
+      <c r="G17" s="64"/>
+      <c r="H17" s="64"/>
+      <c r="I17" s="64"/>
+      <c r="J17" s="63"/>
+      <c r="K17" s="64"/>
+      <c r="L17" s="105"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A18" s="68" t="s">
         <v>45</v>
       </c>
-      <c r="B17" s="67"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-    </row>
-    <row r="18" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="69" t="s">
-        <v>10</v>
-      </c>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
+      <c r="B18" s="67"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
-      <c r="J18" s="71"/>
-      <c r="K18" s="71"/>
-      <c r="L18" s="71"/>
-    </row>
-    <row r="19" spans="1:12" ht="64.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="37" t="s">
+      <c r="J18" s="1"/>
+    </row>
+    <row r="19" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="1"/>
+      <c r="B19" s="69" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="71"/>
+      <c r="K19" s="71"/>
+      <c r="L19" s="71"/>
+    </row>
+    <row r="20" spans="1:12" ht="64.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="B19" s="38" t="s">
+      <c r="B20" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="C19" s="38" t="s">
+      <c r="C20" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="38" t="s">
+      <c r="D20" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="E19" s="38" t="s">
+      <c r="E20" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="F19" s="38" t="s">
+      <c r="F20" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="G19" s="39" t="s">
+      <c r="G20" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="H19" s="40" t="s">
+      <c r="H20" s="40" t="s">
         <v>25</v>
       </c>
-      <c r="I19" s="41" t="s">
+      <c r="I20" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="J19" s="41" t="s">
+      <c r="J20" s="41" t="s">
         <v>46</v>
       </c>
-      <c r="K19" s="72"/>
-      <c r="L19" s="72"/>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A20" s="78">
+      <c r="K20" s="72"/>
+      <c r="L20" s="72"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A21" s="78">
         <f>E5*700000</f>
         <v>16800000</v>
       </c>
-      <c r="B20" s="80"/>
-      <c r="C20" s="82"/>
-      <c r="D20" s="80"/>
-      <c r="E20" s="86">
+      <c r="B21" s="80"/>
+      <c r="C21" s="82"/>
+      <c r="D21" s="80"/>
+      <c r="E21" s="86">
         <v>6000000</v>
       </c>
-      <c r="F20" s="86">
+      <c r="F21" s="86">
         <v>6381000</v>
       </c>
-      <c r="G20" s="36">
-        <f>F20/A$20</f>
+      <c r="G21" s="36">
+        <f>F21/A$21</f>
         <v>0.37982142857142859</v>
       </c>
-      <c r="H20" s="92">
-        <f>A20-F20</f>
+      <c r="H21" s="92">
+        <f>A21-F21</f>
         <v>10419000</v>
       </c>
-      <c r="I20" s="83">
-        <f>1-G20</f>
+      <c r="I21" s="83">
+        <f>1-G21</f>
         <v>0.62017857142857147</v>
       </c>
-      <c r="J20" s="100"/>
-      <c r="K20" s="64"/>
-      <c r="L20" s="64"/>
-    </row>
-    <row r="21" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="45"/>
-      <c r="B21" s="81">
+      <c r="J21" s="100"/>
+      <c r="K21" s="64"/>
+      <c r="L21" s="64"/>
+    </row>
+    <row r="22" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="45"/>
+      <c r="B22" s="81">
         <v>43530</v>
       </c>
-      <c r="C21" s="81">
+      <c r="C22" s="81">
         <v>43535</v>
       </c>
-      <c r="D21" s="81">
+      <c r="D22" s="81">
         <v>43538</v>
       </c>
-      <c r="E21" s="87">
+      <c r="E22" s="87">
         <v>525474</v>
       </c>
-      <c r="F21" s="87">
+      <c r="F22" s="87">
         <v>856087</v>
       </c>
-      <c r="G21" s="36">
-        <f>F21/A20</f>
+      <c r="G22" s="36">
+        <f>F22/A21</f>
         <v>5.0957559523809523E-2</v>
       </c>
-      <c r="H21" s="88">
-        <f t="shared" ref="H21:I23" si="2">H20-F21</f>
+      <c r="H22" s="88">
+        <f t="shared" ref="H22:I24" si="2">H21-F22</f>
         <v>9562913</v>
       </c>
-      <c r="I21" s="27">
+      <c r="I22" s="27">
         <f t="shared" si="2"/>
         <v>0.56922101190476193</v>
       </c>
-      <c r="J21" s="101"/>
-      <c r="K21" s="1"/>
-      <c r="L21" s="1"/>
-    </row>
-    <row r="22" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="14"/>
-      <c r="B22" s="10">
+      <c r="J22" s="101"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+    </row>
+    <row r="23" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="14"/>
+      <c r="B23" s="10">
         <v>43558</v>
       </c>
-      <c r="C22" s="10">
+      <c r="C23" s="10">
         <v>43566</v>
       </c>
-      <c r="D22" s="10">
+      <c r="D23" s="10">
         <v>76442</v>
       </c>
-      <c r="E22" s="88">
+      <c r="E23" s="88">
         <v>1188810</v>
       </c>
-      <c r="F22" s="88">
+      <c r="F23" s="88">
         <v>1358486</v>
       </c>
-      <c r="G22" s="36">
-        <f>F22/A20</f>
+      <c r="G23" s="36">
+        <f>F23/A21</f>
         <v>8.0862261904761909E-2</v>
       </c>
-      <c r="H22" s="88">
+      <c r="H23" s="88">
         <f t="shared" si="2"/>
         <v>8204427</v>
       </c>
-      <c r="I22" s="27">
+      <c r="I23" s="27">
         <f t="shared" si="2"/>
         <v>0.48835875000000001</v>
       </c>
-      <c r="J22" s="101"/>
-      <c r="K22" s="64"/>
-      <c r="L22" s="64"/>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A23" s="14"/>
-      <c r="B23" s="10">
-        <v>43648</v>
-      </c>
-      <c r="C23" s="10">
-        <v>43652</v>
-      </c>
-      <c r="D23" s="22"/>
-      <c r="E23" s="89">
-        <v>629370</v>
-      </c>
-      <c r="F23" s="89">
-        <v>661738</v>
-      </c>
-      <c r="G23" s="36">
-        <f t="shared" ref="G23:G29" si="3">F23/A$20</f>
-        <v>3.938916666666667E-2</v>
-      </c>
-      <c r="H23" s="88">
-        <f t="shared" si="2"/>
-        <v>7542689</v>
-      </c>
-      <c r="I23" s="27">
-        <f t="shared" si="2"/>
-        <v>0.44896958333333337</v>
-      </c>
       <c r="J23" s="101"/>
-      <c r="K23" s="73"/>
-      <c r="L23" s="1"/>
+      <c r="K23" s="64"/>
+      <c r="L23" s="64"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="14"/>
       <c r="B24" s="10">
-        <v>43726</v>
+        <v>43648</v>
       </c>
       <c r="C24" s="10">
-        <v>43731</v>
-      </c>
-      <c r="D24" s="10">
-        <v>43735</v>
-      </c>
-      <c r="E24" s="88">
-        <v>927072</v>
-      </c>
-      <c r="F24" s="88">
-        <v>1010437</v>
+        <v>43652</v>
+      </c>
+      <c r="D24" s="22"/>
+      <c r="E24" s="89">
+        <v>629370</v>
+      </c>
+      <c r="F24" s="89">
+        <v>661738</v>
       </c>
       <c r="G24" s="36">
-        <f t="shared" si="3"/>
-        <v>6.0145059523809524E-2</v>
+        <f t="shared" ref="G24:G32" si="3">F24/A$21</f>
+        <v>3.938916666666667E-2</v>
       </c>
       <c r="H24" s="88">
-        <f t="shared" ref="H24" si="4">H23-F24</f>
-        <v>6532252</v>
+        <f t="shared" si="2"/>
+        <v>7542689</v>
       </c>
       <c r="I24" s="27">
-        <f t="shared" ref="I24" si="5">I23-G24</f>
-        <v>0.38882452380952381</v>
+        <f t="shared" si="2"/>
+        <v>0.44896958333333337</v>
       </c>
       <c r="J24" s="101"/>
-      <c r="K24" s="74"/>
+      <c r="K24" s="73"/>
       <c r="L24" s="1"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="14"/>
       <c r="B25" s="10">
-        <v>43783</v>
+        <v>43726</v>
       </c>
       <c r="C25" s="10">
-        <v>43786</v>
+        <v>43731</v>
       </c>
       <c r="D25" s="10">
-        <v>43789</v>
+        <v>43735</v>
       </c>
       <c r="E25" s="88">
-        <v>616712</v>
+        <v>927072</v>
       </c>
       <c r="F25" s="88">
-        <v>679277</v>
+        <v>1010437</v>
       </c>
       <c r="G25" s="36">
         <f t="shared" si="3"/>
-        <v>4.043315476190476E-2</v>
+        <v>6.0145059523809524E-2</v>
       </c>
       <c r="H25" s="88">
-        <f t="shared" ref="H25" si="6">H24-F25</f>
-        <v>5852975</v>
+        <f t="shared" ref="H25" si="4">H24-F25</f>
+        <v>6532252</v>
       </c>
       <c r="I25" s="27">
-        <f t="shared" ref="I25" si="7">I24-G25</f>
-        <v>0.34839136904761903</v>
+        <f t="shared" ref="I25" si="5">I24-G25</f>
+        <v>0.38882452380952381</v>
       </c>
       <c r="J25" s="101"/>
-      <c r="K25" s="73"/>
+      <c r="K25" s="74"/>
       <c r="L25" s="1"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="14"/>
       <c r="B26" s="10">
-        <v>43795</v>
-      </c>
-      <c r="C26" s="10" t="s">
-        <v>44</v>
+        <v>43783</v>
+      </c>
+      <c r="C26" s="10">
+        <v>43786</v>
       </c>
       <c r="D26" s="10">
-        <v>43801</v>
+        <v>43789</v>
       </c>
       <c r="E26" s="88">
-        <v>787212</v>
+        <v>616712</v>
       </c>
       <c r="F26" s="88">
-        <v>839549</v>
+        <v>679277</v>
       </c>
       <c r="G26" s="36">
         <f t="shared" si="3"/>
-        <v>4.997315476190476E-2</v>
+        <v>4.043315476190476E-2</v>
       </c>
       <c r="H26" s="88">
-        <f t="shared" ref="H26" si="8">H25-F26</f>
-        <v>5013426</v>
+        <f t="shared" ref="H26" si="6">H25-F26</f>
+        <v>5852975</v>
       </c>
       <c r="I26" s="27">
-        <f t="shared" ref="I26" si="9">I25-G26</f>
-        <v>0.29841821428571425</v>
+        <f t="shared" ref="I26" si="7">I25-G26</f>
+        <v>0.34839136904761903</v>
       </c>
       <c r="J26" s="101"/>
       <c r="K26" s="73"/>
@@ -2106,32 +2101,32 @@
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="14"/>
-      <c r="B27" s="10" t="s">
+      <c r="B27" s="10">
+        <v>43795</v>
+      </c>
+      <c r="C27" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="C27" s="10">
+      <c r="D27" s="10">
         <v>43801</v>
       </c>
-      <c r="D27" s="10">
-        <v>43803</v>
-      </c>
       <c r="E27" s="88">
-        <v>339660</v>
+        <v>787212</v>
       </c>
       <c r="F27" s="88">
-        <v>342403</v>
-      </c>
-      <c r="G27" s="25">
+        <v>839549</v>
+      </c>
+      <c r="G27" s="36">
         <f t="shared" si="3"/>
-        <v>2.0381130952380953E-2</v>
+        <v>4.997315476190476E-2</v>
       </c>
       <c r="H27" s="88">
-        <f t="shared" ref="H27" si="10">H26-F27</f>
-        <v>4671023</v>
+        <f t="shared" ref="H27" si="8">H26-F27</f>
+        <v>5013426</v>
       </c>
       <c r="I27" s="27">
-        <f t="shared" ref="I27" si="11">I26-G27</f>
-        <v>0.27803708333333327</v>
+        <f t="shared" ref="I27" si="9">I26-G27</f>
+        <v>0.29841821428571425</v>
       </c>
       <c r="J27" s="101"/>
       <c r="K27" s="73"/>
@@ -2139,113 +2134,174 @@
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="14"/>
-      <c r="B28" s="10">
-        <v>43894</v>
+      <c r="B28" s="10" t="s">
+        <v>44</v>
       </c>
       <c r="C28" s="10">
-        <v>43899</v>
+        <v>43801</v>
       </c>
       <c r="D28" s="10">
-        <v>43900</v>
-      </c>
-      <c r="E28" s="89">
-        <v>937062</v>
+        <v>43803</v>
+      </c>
+      <c r="E28" s="88">
+        <v>339660</v>
       </c>
       <c r="F28" s="88">
-        <v>1009377</v>
-      </c>
-      <c r="G28" s="26">
+        <v>342403</v>
+      </c>
+      <c r="G28" s="25">
         <f t="shared" si="3"/>
-        <v>6.0081964285714287E-2</v>
+        <v>2.0381130952380953E-2</v>
       </c>
       <c r="H28" s="88">
-        <f t="shared" ref="H28" si="12">H27-F28</f>
-        <v>3661646</v>
+        <f t="shared" ref="H28" si="10">H27-F28</f>
+        <v>4671023</v>
       </c>
       <c r="I28" s="27">
-        <f t="shared" ref="I28" si="13">I27-G28</f>
-        <v>0.21795511904761899</v>
-      </c>
-      <c r="J28" s="101">
-        <v>370</v>
-      </c>
+        <f t="shared" ref="I28" si="11">I27-G28</f>
+        <v>0.27803708333333327</v>
+      </c>
+      <c r="J28" s="101"/>
       <c r="K28" s="73"/>
       <c r="L28" s="1"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="14"/>
       <c r="B29" s="10">
+        <v>43894</v>
+      </c>
+      <c r="C29" s="10">
+        <v>43899</v>
+      </c>
+      <c r="D29" s="10">
+        <v>43900</v>
+      </c>
+      <c r="E29" s="89">
+        <v>937062</v>
+      </c>
+      <c r="F29" s="88">
+        <v>1009377</v>
+      </c>
+      <c r="G29" s="26">
+        <f t="shared" si="3"/>
+        <v>6.0081964285714287E-2</v>
+      </c>
+      <c r="H29" s="88">
+        <f t="shared" ref="H29" si="12">H28-F29</f>
+        <v>3661646</v>
+      </c>
+      <c r="I29" s="27">
+        <f t="shared" ref="I29" si="13">I28-G29</f>
+        <v>0.21795511904761899</v>
+      </c>
+      <c r="J29" s="101">
+        <v>370</v>
+      </c>
+      <c r="K29" s="73"/>
+      <c r="L29" s="1"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A30" s="14"/>
+      <c r="B30" s="10">
         <v>43962</v>
       </c>
-      <c r="C29" s="10">
+      <c r="C30" s="10">
         <v>43967</v>
       </c>
-      <c r="D29" s="10">
+      <c r="D30" s="10">
         <v>43972</v>
       </c>
-      <c r="E29" s="89">
+      <c r="E30" s="89">
         <v>957042</v>
       </c>
-      <c r="F29" s="88">
+      <c r="F30" s="88">
         <v>1017446</v>
       </c>
-      <c r="G29" s="25">
+      <c r="G30" s="25">
         <f t="shared" si="3"/>
         <v>6.0562261904761903E-2</v>
       </c>
-      <c r="H29" s="88">
-        <f t="shared" ref="H29" si="14">H28-F29</f>
+      <c r="H30" s="88">
+        <f t="shared" ref="H30" si="14">H29-F30</f>
         <v>2644200</v>
       </c>
-      <c r="I29" s="27">
-        <f t="shared" ref="I29" si="15">I28-G29</f>
+      <c r="I30" s="27">
+        <f t="shared" ref="I30" si="15">I29-G30</f>
         <v>0.15739285714285708</v>
       </c>
-      <c r="J29" s="102">
+      <c r="J30" s="102">
         <v>372</v>
       </c>
-      <c r="K29" s="73"/>
-      <c r="L29" s="1"/>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A30" s="15"/>
-      <c r="B30" s="16"/>
-      <c r="C30" s="16"/>
-      <c r="D30" s="84"/>
-      <c r="E30" s="90"/>
-      <c r="F30" s="91"/>
-      <c r="G30" s="23"/>
-      <c r="H30" s="91"/>
-      <c r="I30" s="85"/>
-      <c r="J30" s="103"/>
       <c r="K30" s="73"/>
       <c r="L30" s="1"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" s="15"/>
-      <c r="B31" s="16"/>
-      <c r="C31" s="16"/>
-      <c r="D31" s="84"/>
-      <c r="E31" s="90"/>
-      <c r="F31" s="91"/>
-      <c r="G31" s="23"/>
-      <c r="H31" s="91"/>
-      <c r="I31" s="85"/>
-      <c r="J31" s="103"/>
+      <c r="B31" s="16">
+        <v>44020</v>
+      </c>
+      <c r="C31" s="16">
+        <v>44025</v>
+      </c>
+      <c r="D31" s="16">
+        <v>44029</v>
+      </c>
+      <c r="E31" s="90">
+        <v>911088</v>
+      </c>
+      <c r="F31" s="91">
+        <v>990230</v>
+      </c>
+      <c r="G31" s="23">
+        <f t="shared" si="3"/>
+        <v>5.8942261904761907E-2</v>
+      </c>
+      <c r="H31" s="88">
+        <f t="shared" ref="H31" si="16">H30-F31</f>
+        <v>1653970</v>
+      </c>
+      <c r="I31" s="27">
+        <f t="shared" ref="I31" si="17">I30-G31</f>
+        <v>9.8450595238095184E-2</v>
+      </c>
+      <c r="J31" s="103">
+        <v>372</v>
+      </c>
       <c r="K31" s="73"/>
       <c r="L31" s="1"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" s="15"/>
-      <c r="B32" s="16"/>
-      <c r="C32" s="16"/>
-      <c r="D32" s="84"/>
-      <c r="E32" s="90"/>
-      <c r="F32" s="91"/>
-      <c r="G32" s="23"/>
-      <c r="H32" s="91"/>
-      <c r="I32" s="85"/>
-      <c r="J32" s="103"/>
+      <c r="B32" s="16">
+        <v>44089</v>
+      </c>
+      <c r="C32" s="16">
+        <v>44094</v>
+      </c>
+      <c r="D32" s="16">
+        <v>44105</v>
+      </c>
+      <c r="E32" s="90">
+        <v>983016</v>
+      </c>
+      <c r="F32" s="91">
+        <v>1020816</v>
+      </c>
+      <c r="G32" s="23">
+        <f t="shared" si="3"/>
+        <v>6.0762857142857146E-2</v>
+      </c>
+      <c r="H32" s="88">
+        <f t="shared" ref="H32" si="18">H31-F32</f>
+        <v>633154</v>
+      </c>
+      <c r="I32" s="27">
+        <f t="shared" ref="I32" si="19">I31-G32</f>
+        <v>3.7687738095238038E-2</v>
+      </c>
+      <c r="J32" s="103">
+        <v>372</v>
+      </c>
       <c r="K32" s="73"/>
       <c r="L32" s="1"/>
     </row>
@@ -2277,7 +2333,7 @@
       <c r="K34" s="73"/>
       <c r="L34" s="1"/>
     </row>
-    <row r="35" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35" s="15"/>
       <c r="B35" s="16"/>
       <c r="C35" s="16"/>
@@ -2285,62 +2341,62 @@
       <c r="E35" s="90"/>
       <c r="F35" s="91"/>
       <c r="G35" s="23"/>
-      <c r="H35" s="93"/>
+      <c r="H35" s="91"/>
       <c r="I35" s="85"/>
       <c r="J35" s="103"/>
-      <c r="K35" s="1"/>
+      <c r="K35" s="73"/>
       <c r="L35" s="1"/>
     </row>
     <row r="36" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="17" t="s">
+      <c r="A36" s="15"/>
+      <c r="B36" s="16"/>
+      <c r="C36" s="16"/>
+      <c r="D36" s="84"/>
+      <c r="E36" s="90"/>
+      <c r="F36" s="91"/>
+      <c r="G36" s="23"/>
+      <c r="H36" s="93"/>
+      <c r="I36" s="85"/>
+      <c r="J36" s="103"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="1"/>
+    </row>
+    <row r="37" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="B36" s="18"/>
-      <c r="C36" s="18"/>
-      <c r="D36" s="19"/>
-      <c r="E36" s="95">
-        <f>SUM(E20:E35)</f>
-        <v>12908414</v>
-      </c>
-      <c r="F36" s="96">
-        <f>SUM(F20:F35)</f>
-        <v>14155800</v>
-      </c>
-      <c r="G36" s="24">
-        <f>SUM(G20:G35)</f>
-        <v>0.842607142857143</v>
-      </c>
-      <c r="H36" s="20">
-        <f>A20-F36</f>
-        <v>2644200</v>
-      </c>
-      <c r="I36" s="29">
-        <f>1-G36</f>
-        <v>0.157392857142857</v>
-      </c>
-      <c r="J36" s="104"/>
-      <c r="K36" s="75"/>
-      <c r="L36" s="75"/>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A39" s="1"/>
-      <c r="B39" s="1"/>
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
-      <c r="F39" s="1"/>
-      <c r="G39" s="1"/>
-      <c r="H39" s="1"/>
-      <c r="I39" s="1"/>
-      <c r="J39" s="1"/>
-    </row>
-    <row r="40" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="106" t="s">
-        <v>16</v>
-      </c>
-      <c r="B40" s="106"/>
-      <c r="C40" s="106"/>
-      <c r="D40" s="106"/>
+      <c r="B37" s="18"/>
+      <c r="C37" s="18"/>
+      <c r="D37" s="19"/>
+      <c r="E37" s="95">
+        <f>SUM(E21:E36)</f>
+        <v>14802518</v>
+      </c>
+      <c r="F37" s="96">
+        <f>SUM(F21:F36)</f>
+        <v>16166846</v>
+      </c>
+      <c r="G37" s="24">
+        <f>SUM(G21:G36)</f>
+        <v>0.96231226190476205</v>
+      </c>
+      <c r="H37" s="20">
+        <f>A21-F37</f>
+        <v>633154</v>
+      </c>
+      <c r="I37" s="29">
+        <f>1-G37</f>
+        <v>3.7687738095237955E-2</v>
+      </c>
+      <c r="J37" s="104"/>
+      <c r="K37" s="75"/>
+      <c r="L37" s="75"/>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A40" s="1"/>
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
@@ -2348,17 +2404,13 @@
       <c r="I40" s="1"/>
       <c r="J40" s="1"/>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A41" s="115" t="s">
-        <v>17</v>
-      </c>
-      <c r="B41" s="115"/>
-      <c r="C41" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="D41" s="11" t="s">
-        <v>19</v>
-      </c>
+    <row r="41" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="114" t="s">
+        <v>16</v>
+      </c>
+      <c r="B41" s="114"/>
+      <c r="C41" s="114"/>
+      <c r="D41" s="114"/>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
@@ -2367,35 +2419,45 @@
       <c r="J41" s="1"/>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A42" s="113">
-        <f>A20-F36</f>
-        <v>2644200</v>
-      </c>
-      <c r="B42" s="114"/>
-      <c r="C42" s="79">
-        <f>1-G36</f>
-        <v>0.157392857142857</v>
-      </c>
-      <c r="D42" s="21">
-        <f>(C42/0.8)*100</f>
-        <v>19.674107142857125</v>
-      </c>
-      <c r="E42" s="94" t="s">
+      <c r="A42" s="111" t="s">
+        <v>17</v>
+      </c>
+      <c r="B42" s="111"/>
+      <c r="C42" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D42" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="1"/>
+      <c r="I42" s="1"/>
+      <c r="J42" s="1"/>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A43" s="109">
+        <f>A21-F37</f>
+        <v>633154</v>
+      </c>
+      <c r="B43" s="110"/>
+      <c r="C43" s="79">
+        <f>1-G37</f>
+        <v>3.7687738095237955E-2</v>
+      </c>
+      <c r="D43" s="21">
+        <f>(C43/0.8)*100</f>
+        <v>4.7109672619047442</v>
+      </c>
+      <c r="E43" s="94" t="s">
         <v>42</v>
       </c>
-      <c r="F42" s="94"/>
-      <c r="G42" s="94"/>
-      <c r="H42" s="94"/>
-      <c r="I42" s="94"/>
-      <c r="J42" s="94"/>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A43" s="1"/>
-      <c r="B43" s="1"/>
-      <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
-      <c r="E43" s="1"/>
-      <c r="F43" s="1"/>
+      <c r="F43" s="94"/>
+      <c r="G43" s="94"/>
+      <c r="H43" s="94"/>
+      <c r="I43" s="94"/>
+      <c r="J43" s="94"/>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A44" s="1"/>
@@ -2404,18 +2466,11 @@
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
-      <c r="G44" s="1"/>
-      <c r="H44" s="1"/>
-      <c r="I44" s="1"/>
-      <c r="J44" s="1"/>
-      <c r="K44" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A45" s="1"/>
-      <c r="B45" s="7"/>
-      <c r="C45" s="7"/>
+      <c r="B45" s="1"/>
+      <c r="C45" s="1"/>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
@@ -2423,35 +2478,40 @@
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
       <c r="J45" s="1"/>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A46" s="60"/>
-      <c r="B46" s="60"/>
-      <c r="C46" s="60"/>
-      <c r="D46" s="60"/>
-      <c r="E46" s="60"/>
-      <c r="F46" s="60"/>
-      <c r="G46" s="60"/>
-      <c r="H46" s="60"/>
-      <c r="I46" s="111"/>
-      <c r="J46" s="112"/>
+      <c r="K45" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A46" s="1"/>
+      <c r="B46" s="7"/>
+      <c r="C46" s="7"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1"/>
+      <c r="H46" s="1"/>
+      <c r="I46" s="1"/>
+      <c r="J46" s="1"/>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A47" s="61"/>
-      <c r="B47" s="62"/>
-      <c r="C47" s="62"/>
-      <c r="D47" s="1"/>
-      <c r="E47" s="1"/>
-      <c r="F47" s="62"/>
-      <c r="G47" s="63"/>
-      <c r="H47" s="62"/>
+      <c r="A47" s="60"/>
+      <c r="B47" s="60"/>
+      <c r="C47" s="60"/>
+      <c r="D47" s="60"/>
+      <c r="E47" s="60"/>
+      <c r="F47" s="60"/>
+      <c r="G47" s="60"/>
+      <c r="H47" s="60"/>
+      <c r="I47" s="107"/>
+      <c r="J47" s="108"/>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A48" s="61"/>
       <c r="B48" s="62"/>
       <c r="C48" s="62"/>
-      <c r="D48" s="62"/>
-      <c r="E48" s="62"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1"/>
       <c r="F48" s="62"/>
       <c r="G48" s="63"/>
       <c r="H48" s="62"/>
@@ -2460,8 +2520,8 @@
       <c r="A49" s="61"/>
       <c r="B49" s="62"/>
       <c r="C49" s="62"/>
-      <c r="D49" s="1"/>
-      <c r="E49" s="1"/>
+      <c r="D49" s="62"/>
+      <c r="E49" s="62"/>
       <c r="F49" s="62"/>
       <c r="G49" s="63"/>
       <c r="H49" s="62"/>
@@ -2470,8 +2530,8 @@
       <c r="A50" s="61"/>
       <c r="B50" s="62"/>
       <c r="C50" s="62"/>
-      <c r="D50" s="62"/>
-      <c r="E50" s="62"/>
+      <c r="D50" s="1"/>
+      <c r="E50" s="1"/>
       <c r="F50" s="62"/>
       <c r="G50" s="63"/>
       <c r="H50" s="62"/>
@@ -2480,8 +2540,8 @@
       <c r="A51" s="61"/>
       <c r="B51" s="62"/>
       <c r="C51" s="62"/>
-      <c r="D51" s="1"/>
-      <c r="E51" s="1"/>
+      <c r="D51" s="62"/>
+      <c r="E51" s="62"/>
       <c r="F51" s="62"/>
       <c r="G51" s="63"/>
       <c r="H51" s="62"/>
@@ -2489,22 +2549,22 @@
     <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52" s="61"/>
       <c r="B52" s="62"/>
-      <c r="C52" s="64"/>
-      <c r="D52" s="65"/>
-      <c r="E52" s="65"/>
-      <c r="F52" s="64"/>
-      <c r="G52" s="64"/>
-      <c r="H52" s="64"/>
+      <c r="C52" s="62"/>
+      <c r="D52" s="1"/>
+      <c r="E52" s="1"/>
+      <c r="F52" s="62"/>
+      <c r="G52" s="63"/>
+      <c r="H52" s="62"/>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A53" s="61"/>
       <c r="B53" s="62"/>
-      <c r="C53" s="62"/>
-      <c r="D53" s="62"/>
-      <c r="E53" s="62"/>
-      <c r="F53" s="62"/>
-      <c r="G53" s="63"/>
-      <c r="H53" s="62"/>
+      <c r="C53" s="64"/>
+      <c r="D53" s="65"/>
+      <c r="E53" s="65"/>
+      <c r="F53" s="64"/>
+      <c r="G53" s="64"/>
+      <c r="H53" s="64"/>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54" s="61"/>
@@ -2520,103 +2580,114 @@
       <c r="A55" s="61"/>
       <c r="B55" s="62"/>
       <c r="C55" s="62"/>
-      <c r="D55" s="1"/>
-      <c r="E55" s="1"/>
+      <c r="D55" s="62"/>
+      <c r="E55" s="62"/>
       <c r="F55" s="62"/>
       <c r="G55" s="63"/>
       <c r="H55" s="62"/>
     </row>
-    <row r="56" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A56" s="1"/>
-      <c r="B56" s="108"/>
-      <c r="C56" s="108"/>
-      <c r="D56" s="109"/>
-      <c r="E56" s="66"/>
-      <c r="F56" s="1"/>
-      <c r="G56" s="1"/>
-      <c r="H56" s="1"/>
-      <c r="I56" s="1"/>
-      <c r="J56" s="1"/>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A57" s="60"/>
-      <c r="B57" s="60"/>
-      <c r="C57" s="60"/>
-      <c r="D57" s="60"/>
-      <c r="E57" s="60"/>
-      <c r="F57" s="60"/>
-      <c r="G57" s="60"/>
-      <c r="H57" s="60"/>
-      <c r="I57" s="111"/>
-      <c r="J57" s="112"/>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A56" s="61"/>
+      <c r="B56" s="62"/>
+      <c r="C56" s="62"/>
+      <c r="D56" s="1"/>
+      <c r="E56" s="1"/>
+      <c r="F56" s="62"/>
+      <c r="G56" s="63"/>
+      <c r="H56" s="62"/>
+    </row>
+    <row r="57" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A57" s="1"/>
+      <c r="B57" s="115"/>
+      <c r="C57" s="115"/>
+      <c r="D57" s="116"/>
+      <c r="E57" s="66"/>
+      <c r="F57" s="1"/>
+      <c r="G57" s="1"/>
+      <c r="H57" s="1"/>
+      <c r="I57" s="1"/>
+      <c r="J57" s="1"/>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A58" s="61"/>
-      <c r="B58" s="1"/>
-      <c r="C58" s="1"/>
-      <c r="D58" s="1"/>
-      <c r="E58" s="1"/>
-      <c r="F58" s="63"/>
-      <c r="G58" s="63"/>
-      <c r="H58" s="62"/>
+      <c r="A58" s="60"/>
+      <c r="B58" s="60"/>
+      <c r="C58" s="60"/>
+      <c r="D58" s="60"/>
+      <c r="E58" s="60"/>
+      <c r="F58" s="60"/>
+      <c r="G58" s="60"/>
+      <c r="H58" s="60"/>
       <c r="I58" s="107"/>
-      <c r="J58" s="107"/>
+      <c r="J58" s="108"/>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A59" s="61"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
-      <c r="D59" s="64"/>
-      <c r="E59" s="64"/>
-      <c r="F59" s="64"/>
-      <c r="G59" s="64"/>
-      <c r="H59" s="64"/>
-      <c r="I59" s="107"/>
-      <c r="J59" s="107"/>
+      <c r="D59" s="1"/>
+      <c r="E59" s="1"/>
+      <c r="F59" s="63"/>
+      <c r="G59" s="63"/>
+      <c r="H59" s="62"/>
+      <c r="I59" s="112"/>
+      <c r="J59" s="112"/>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A60" s="1"/>
+      <c r="A60" s="61"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
-      <c r="D60" s="1"/>
-      <c r="E60" s="1"/>
-      <c r="F60" s="1"/>
-      <c r="G60" s="1"/>
-      <c r="H60" s="1"/>
-    </row>
-    <row r="65" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B65" s="111"/>
-      <c r="C65" s="112"/>
-    </row>
-    <row r="72" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B72" s="111"/>
-      <c r="C72" s="112"/>
+      <c r="D60" s="64"/>
+      <c r="E60" s="64"/>
+      <c r="F60" s="64"/>
+      <c r="G60" s="64"/>
+      <c r="H60" s="64"/>
+      <c r="I60" s="112"/>
+      <c r="J60" s="112"/>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A61" s="1"/>
+      <c r="B61" s="1"/>
+      <c r="C61" s="1"/>
+      <c r="D61" s="1"/>
+      <c r="E61" s="1"/>
+      <c r="F61" s="1"/>
+      <c r="G61" s="1"/>
+      <c r="H61" s="1"/>
+    </row>
+    <row r="66" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B66" s="107"/>
+      <c r="C66" s="108"/>
+    </row>
+    <row r="73" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B73" s="107"/>
+      <c r="C73" s="108"/>
     </row>
   </sheetData>
   <sortState ref="B9:B16">
     <sortCondition ref="B9"/>
   </sortState>
-  <mergeCells count="12">
-    <mergeCell ref="B72:C72"/>
+  <mergeCells count="13">
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A41:D41"/>
+    <mergeCell ref="I60:J60"/>
+    <mergeCell ref="B57:D57"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A17:E17"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="A43:B43"/>
     <mergeCell ref="A42:B42"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="I46:J46"/>
-    <mergeCell ref="I57:J57"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="I47:J47"/>
     <mergeCell ref="I58:J58"/>
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A40:D40"/>
     <mergeCell ref="I59:J59"/>
-    <mergeCell ref="B56:D56"/>
-    <mergeCell ref="A2:E2"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.51181102362204722" footer="0.51181102362204722"/>
-  <pageSetup paperSize="9" scale="89" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="87" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <rowBreaks count="1" manualBreakCount="1">
-    <brk id="42" max="12" man="1"/>
+    <brk id="43" max="12" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
